--- a/analysis/results/Q1_czech/univariate_analysis/uni_analysis_wb_terminal_ileum.xlsx
+++ b/analysis/results/Q1_czech/univariate_analysis/uni_analysis_wb_terminal_ileum.xlsx
@@ -1951,10 +1951,10 @@
         <v>3.49379915491419</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -2043,7 +2043,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>-0.844972048282889</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -2227,10 +2227,10 @@
         <v>1.4308858360778</v>
       </c>
       <c r="X5" t="n">
-        <v>0.117924528301887</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -2319,10 +2319,10 @@
         <v>1.51549372544965</v>
       </c>
       <c r="X6" t="n">
-        <v>0.080188679245283</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -2411,10 +2411,10 @@
         <v>3.47424279172024</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -2503,10 +2503,10 @@
         <v>0.406303668245906</v>
       </c>
       <c r="X8" t="n">
-        <v>0.169811320754717</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.080188679245283</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -2595,10 +2595,10 @@
         <v>5.72757807069658</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z9" t="s">
         <v>45</v>
@@ -2687,10 +2687,10 @@
         <v>-1.74263192735352</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z10" t="s">
         <v>47</v>
@@ -2779,7 +2779,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -2871,10 +2871,10 @@
         <v>0.666329004192877</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z12" t="s">
         <v>51</v>
@@ -2963,10 +2963,10 @@
         <v>0.563132545328175</v>
       </c>
       <c r="X13" t="n">
-        <v>0.080188679245283</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z13" t="s">
         <v>53</v>
@@ -3055,10 +3055,10 @@
         <v>-0.530438058191457</v>
       </c>
       <c r="X14" t="n">
-        <v>0.10377358490566</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -3147,10 +3147,10 @@
         <v>0.156829983711012</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -3239,10 +3239,10 @@
         <v>-0.909804015928418</v>
       </c>
       <c r="X16" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.75</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -3331,10 +3331,10 @@
         <v>1.5627848936833</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -3423,10 +3423,10 @@
         <v>-0.432202113567217</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -3515,10 +3515,10 @@
         <v>-5.61258175206072</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -3607,10 +3607,10 @@
         <v>-0.764210295497728</v>
       </c>
       <c r="X20" t="n">
-        <v>0.132075471698113</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.875</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -3699,10 +3699,10 @@
         <v>0.379448155363993</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -3791,10 +3791,10 @@
         <v>-2.11230960606297</v>
       </c>
       <c r="X22" t="n">
-        <v>0.141509433962264</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -3883,10 +3883,10 @@
         <v>-0.224718240136995</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.432432432432432</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z23" t="s">
         <v>73</v>
@@ -3975,10 +3975,10 @@
         <v>-0.354269700427816</v>
       </c>
       <c r="X24" t="n">
-        <v>0.169811320754717</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z24" t="s">
         <v>75</v>
@@ -4067,10 +4067,10 @@
         <v>0.993825146815915</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z25" t="s">
         <v>77</v>
@@ -4159,10 +4159,10 @@
         <v>-0.255541138151881</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z26" t="s">
         <v>79</v>
@@ -4251,10 +4251,10 @@
         <v>8.05604429204527</v>
       </c>
       <c r="X27" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z27" t="s">
         <v>81</v>
@@ -4343,10 +4343,10 @@
         <v>5.1447073866032</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z28" t="s">
         <v>83</v>
@@ -4435,10 +4435,10 @@
         <v>-0.684867634678183</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z29" t="s">
         <v>85</v>
@@ -4527,10 +4527,10 @@
         <v>-0.842693890641549</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z30" t="s">
         <v>87</v>
@@ -4619,10 +4619,10 @@
         <v>-0.43861405225334</v>
       </c>
       <c r="X31" t="n">
-        <v>0.165094339622642</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.089622641509434</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="Z31" t="s">
         <v>89</v>
@@ -4711,10 +4711,10 @@
         <v>2.38184968936269</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z32" t="s">
         <v>91</v>
@@ -4803,7 +4803,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -4895,10 +4895,10 @@
         <v>1.24855554692937</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z34" t="s">
         <v>95</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z35" t="s">
         <v>97</v>
@@ -5079,10 +5079,10 @@
         <v>-0.416836813054466</v>
       </c>
       <c r="X36" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.875</v>
       </c>
       <c r="Z36" t="s">
         <v>99</v>
@@ -5171,10 +5171,10 @@
         <v>-1.16037843624504</v>
       </c>
       <c r="X37" t="n">
-        <v>0.14622641509434</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z37" t="s">
         <v>101</v>
@@ -5263,10 +5263,10 @@
         <v>1.13142989263615</v>
       </c>
       <c r="X38" t="n">
-        <v>0.160377358490566</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z38" t="s">
         <v>103</v>
@@ -5355,10 +5355,10 @@
         <v>-1.67490340447438</v>
       </c>
       <c r="X39" t="n">
-        <v>0.155660377358491</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z39" t="s">
         <v>105</v>
@@ -5447,10 +5447,10 @@
         <v>0.774075454200643</v>
       </c>
       <c r="X40" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.10377358490566</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Z40" t="s">
         <v>107</v>
@@ -5539,10 +5539,10 @@
         <v>-0.276271840275909</v>
       </c>
       <c r="X41" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.75</v>
       </c>
       <c r="Z41" t="s">
         <v>109</v>
@@ -5631,10 +5631,10 @@
         <v>-0.668628404030375</v>
       </c>
       <c r="X42" t="n">
-        <v>0.132075471698113</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z42" t="s">
         <v>111</v>
@@ -5723,10 +5723,10 @@
         <v>0.594253540585338</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z43" t="s">
         <v>113</v>
@@ -5815,10 +5815,10 @@
         <v>-1.31710809319611</v>
       </c>
       <c r="X44" t="n">
-        <v>0.122641509433962</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z44" t="s">
         <v>115</v>
@@ -5907,10 +5907,10 @@
         <v>0.0571756827561014</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z45" t="s">
         <v>117</v>
@@ -5999,10 +5999,10 @@
         <v>0.0772577873481216</v>
       </c>
       <c r="X46" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z46" t="s">
         <v>119</v>
@@ -6091,10 +6091,10 @@
         <v>-1.32573199652779</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z47" t="s">
         <v>121</v>
@@ -6183,10 +6183,10 @@
         <v>1.84914552539868</v>
       </c>
       <c r="X48" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z48" t="s">
         <v>123</v>
@@ -6275,10 +6275,10 @@
         <v>3.6401131945404</v>
       </c>
       <c r="X49" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z49" t="s">
         <v>125</v>
@@ -6367,10 +6367,10 @@
         <v>-1.6214392079554</v>
       </c>
       <c r="X50" t="n">
-        <v>0.132075471698113</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z50" t="s">
         <v>127</v>
@@ -6459,10 +6459,10 @@
         <v>4.65492846919492</v>
       </c>
       <c r="X51" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -6551,10 +6551,10 @@
         <v>0.804131214470626</v>
       </c>
       <c r="X52" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z52" t="s">
         <v>131</v>
@@ -6643,10 +6643,10 @@
         <v>-6.04903962237474</v>
       </c>
       <c r="X53" t="n">
-        <v>0.10377358490566</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z53" t="s">
         <v>133</v>
@@ -6735,10 +6735,10 @@
         <v>-3.71456111730286</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z54" t="s">
         <v>135</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z55" t="s">
         <v>137</v>
@@ -6919,10 +6919,10 @@
         <v>5.87356060774714</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z56" t="s">
         <v>139</v>
@@ -7011,10 +7011,10 @@
         <v>-0.309894118481872</v>
       </c>
       <c r="X57" t="n">
-        <v>0.14622641509434</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z57" t="s">
         <v>141</v>
@@ -7103,10 +7103,10 @@
         <v>-0.992355420336149</v>
       </c>
       <c r="X58" t="n">
-        <v>0.165094339622642</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z59" t="s">
         <v>145</v>
@@ -7287,10 +7287,10 @@
         <v>-2.02094879998106</v>
       </c>
       <c r="X60" t="n">
-        <v>0.127358490566038</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z60" t="s">
         <v>147</v>
@@ -7379,10 +7379,10 @@
         <v>-1.81336467626879</v>
       </c>
       <c r="X61" t="n">
-        <v>0.165094339622642</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z61" t="s">
         <v>149</v>
@@ -7471,10 +7471,10 @@
         <v>-0.269194065643039</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z62" t="s">
         <v>151</v>
@@ -7563,10 +7563,10 @@
         <v>2.39452750259347</v>
       </c>
       <c r="X63" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z63" t="s">
         <v>153</v>
@@ -7655,10 +7655,10 @@
         <v>-3.01789418439327</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z64" t="s">
         <v>155</v>
@@ -7747,10 +7747,10 @@
         <v>-1.19494151287706</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z65" t="s">
         <v>157</v>
@@ -7839,10 +7839,10 @@
         <v>1.88482079590151</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z66" t="s">
         <v>159</v>
@@ -7931,10 +7931,10 @@
         <v>-4.82471934820036</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z67" t="s">
         <v>161</v>
@@ -8023,10 +8023,10 @@
         <v>-0.110864755722781</v>
       </c>
       <c r="X68" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z68" t="s">
         <v>163</v>
@@ -8115,10 +8115,10 @@
         <v>2.14683381592715</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z69" t="s">
         <v>165</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z70" t="s">
         <v>167</v>
@@ -8299,10 +8299,10 @@
         <v>1.76950815929586</v>
       </c>
       <c r="X71" t="n">
-        <v>0.113207547169811</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z71" t="s">
         <v>169</v>
@@ -8391,10 +8391,10 @@
         <v>3.02327500441961</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z72" t="s">
         <v>171</v>
@@ -8483,10 +8483,10 @@
         <v>7.11893357891225</v>
       </c>
       <c r="X73" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z73" t="s">
         <v>173</v>
@@ -8575,10 +8575,10 @@
         <v>-3.0278016541601</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z74" t="s">
         <v>175</v>
@@ -8667,10 +8667,10 @@
         <v>2.72863730750553</v>
       </c>
       <c r="X75" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z75" t="s">
         <v>177</v>
@@ -8759,10 +8759,10 @@
         <v>-2.48500069692481</v>
       </c>
       <c r="X76" t="n">
-        <v>0.150943396226415</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z76" t="s">
         <v>179</v>
@@ -8851,10 +8851,10 @@
         <v>1.08785477206618</v>
       </c>
       <c r="X77" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z77" t="s">
         <v>181</v>
@@ -8943,10 +8943,10 @@
         <v>6.39230632360701</v>
       </c>
       <c r="X78" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z78" t="s">
         <v>183</v>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z79" t="s">
         <v>185</v>
@@ -9127,10 +9127,10 @@
         <v>-0.391228583192175</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z80" t="s">
         <v>187</v>
@@ -9219,10 +9219,10 @@
         <v>-0.625966070343773</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z81" t="s">
         <v>189</v>
@@ -9311,10 +9311,10 @@
         <v>-1.02610872474135</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z82" t="s">
         <v>191</v>
@@ -9403,10 +9403,10 @@
         <v>-2.58603704539743</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z83" t="s">
         <v>193</v>
@@ -9495,10 +9495,10 @@
         <v>2.01001326430748</v>
       </c>
       <c r="X84" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z84" t="s">
         <v>195</v>
@@ -9587,10 +9587,10 @@
         <v>0.483617046522962</v>
       </c>
       <c r="X85" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z85" t="s">
         <v>197</v>
@@ -9679,10 +9679,10 @@
         <v>8.13700966171841</v>
       </c>
       <c r="X86" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z86" t="s">
         <v>199</v>
@@ -9771,10 +9771,10 @@
         <v>1.70200954658077</v>
       </c>
       <c r="X87" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -9863,10 +9863,10 @@
         <v>-0.290870631200621</v>
       </c>
       <c r="X88" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.089622641509434</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="Z88" t="s">
         <v>203</v>
@@ -9955,10 +9955,10 @@
         <v>-0.454609366627135</v>
       </c>
       <c r="X89" t="n">
-        <v>0.089622641509434</v>
+        <v>0.513513513513513</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z89" t="s">
         <v>205</v>
@@ -10047,10 +10047,10 @@
         <v>-1.10021688053975</v>
       </c>
       <c r="X90" t="n">
-        <v>0.132075471698113</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z90" t="s">
         <v>207</v>
@@ -10139,10 +10139,10 @@
         <v>0.388458674089541</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z91" t="s">
         <v>209</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z92" t="s">
         <v>211</v>
@@ -10323,10 +10323,10 @@
         <v>0.490919741677908</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z93" t="s">
         <v>213</v>
@@ -10415,7 +10415,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X94" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
@@ -10507,10 +10507,10 @@
         <v>-0.959307471509974</v>
       </c>
       <c r="X95" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z95" t="s">
         <v>217</v>
@@ -10599,10 +10599,10 @@
         <v>-0.977600947741615</v>
       </c>
       <c r="X96" t="n">
-        <v>0.14622641509434</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z96" t="s">
         <v>219</v>
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z97" t="s">
         <v>221</v>
@@ -10783,10 +10783,10 @@
         <v>-0.830628738161187</v>
       </c>
       <c r="X98" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.75</v>
       </c>
       <c r="Z98" t="s">
         <v>223</v>
@@ -10875,10 +10875,10 @@
         <v>2.36660624467944</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z99" t="s">
         <v>225</v>
@@ -10967,10 +10967,10 @@
         <v>-0.235885302136419</v>
       </c>
       <c r="X100" t="n">
-        <v>0.117924528301887</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z100" t="s">
         <v>227</v>
@@ -11059,10 +11059,10 @@
         <v>0.194741906463199</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z101" t="s">
         <v>229</v>
@@ -11151,10 +11151,10 @@
         <v>1.14822896688398</v>
       </c>
       <c r="X102" t="n">
-        <v>0.165094339622642</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.080188679245283</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="Z102" t="s">
         <v>231</v>
@@ -11243,10 +11243,10 @@
         <v>3.37483152025958</v>
       </c>
       <c r="X103" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z103" t="s">
         <v>233</v>
@@ -11335,10 +11335,10 @@
         <v>-7.25288827825483</v>
       </c>
       <c r="X104" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z104" t="s">
         <v>235</v>
@@ -11427,10 +11427,10 @@
         <v>-0.468138442055209</v>
       </c>
       <c r="X105" t="n">
-        <v>0.169811320754717</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z105" t="s">
         <v>237</v>
@@ -11519,10 +11519,10 @@
         <v>-3.27751334557395</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z106" t="s">
         <v>239</v>
@@ -11611,10 +11611,10 @@
         <v>-1.60585821733473</v>
       </c>
       <c r="X107" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z107" t="s">
         <v>241</v>
@@ -11703,10 +11703,10 @@
         <v>0.39106782711836</v>
       </c>
       <c r="X108" t="n">
-        <v>0.127358490566038</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z108" t="s">
         <v>243</v>
@@ -11798,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z109" t="s">
         <v>245</v>
@@ -11887,10 +11887,10 @@
         <v>-0.717911388081197</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z110" t="s">
         <v>247</v>
@@ -11979,10 +11979,10 @@
         <v>-0.606582175057917</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z111" t="s">
         <v>249</v>
@@ -12071,10 +12071,10 @@
         <v>-3.30039504064692</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z112" t="s">
         <v>251</v>
@@ -12163,10 +12163,10 @@
         <v>-1.45423892303496</v>
       </c>
       <c r="X113" t="n">
-        <v>0.113207547169811</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z113" t="s">
         <v>253</v>
@@ -12255,10 +12255,10 @@
         <v>-7.32225746410691</v>
       </c>
       <c r="X114" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z114" t="s">
         <v>255</v>
@@ -12347,10 +12347,10 @@
         <v>-3.17168995358188</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.486486486486487</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z115" t="s">
         <v>257</v>
@@ -12439,10 +12439,10 @@
         <v>0.974416707460031</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z116" t="s">
         <v>259</v>
@@ -12531,10 +12531,10 @@
         <v>7.68389959349887</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z117" t="s">
         <v>261</v>
@@ -12623,10 +12623,10 @@
         <v>-0.330776270830925</v>
       </c>
       <c r="X118" t="n">
-        <v>0.160377358490566</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z118" t="s">
         <v>263</v>
@@ -12715,10 +12715,10 @@
         <v>2.1129050625852</v>
       </c>
       <c r="X119" t="n">
-        <v>0.113207547169811</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Z119" t="s">
         <v>265</v>
@@ -12807,10 +12807,10 @@
         <v>0.352536633820205</v>
       </c>
       <c r="X120" t="n">
-        <v>0.14622641509434</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z120" t="s">
         <v>267</v>
@@ -12899,10 +12899,10 @@
         <v>-2.03875136788662</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z121" t="s">
         <v>269</v>
@@ -12991,10 +12991,10 @@
         <v>-2.6188027270718</v>
       </c>
       <c r="X122" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z122" t="s">
         <v>271</v>
@@ -13083,10 +13083,10 @@
         <v>-2.5699929090046</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z123" t="s">
         <v>273</v>
@@ -13175,10 +13175,10 @@
         <v>-0.152749511491859</v>
       </c>
       <c r="X124" t="n">
-        <v>0.174528301886792</v>
+        <v>1</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.875</v>
       </c>
       <c r="Z124" t="s">
         <v>275</v>
@@ -13267,10 +13267,10 @@
         <v>-0.63429794285933</v>
       </c>
       <c r="X125" t="n">
-        <v>0.10377358490566</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z125" t="s">
         <v>277</v>
@@ -13359,10 +13359,10 @@
         <v>-0.204466401625193</v>
       </c>
       <c r="X126" t="n">
-        <v>0.132075471698113</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z126" t="s">
         <v>279</v>
@@ -13451,10 +13451,10 @@
         <v>0.526790006039274</v>
       </c>
       <c r="X127" t="n">
-        <v>0.136792452830189</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z127" t="s">
         <v>281</v>
@@ -13543,10 +13543,10 @@
         <v>0.738072011932568</v>
       </c>
       <c r="X128" t="n">
-        <v>0.141509433962264</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z128" t="s">
         <v>283</v>
@@ -13635,10 +13635,10 @@
         <v>0.982088559289227</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z129" t="s">
         <v>285</v>
@@ -13727,10 +13727,10 @@
         <v>1.36422440109722</v>
       </c>
       <c r="X130" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z130" t="s">
         <v>287</v>
@@ -13819,10 +13819,10 @@
         <v>0.839457163837423</v>
       </c>
       <c r="X131" t="n">
-        <v>0.169811320754717</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z131" t="s">
         <v>289</v>
@@ -13911,10 +13911,10 @@
         <v>-0.483542699761675</v>
       </c>
       <c r="X132" t="n">
-        <v>0.141509433962264</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z132" t="s">
         <v>291</v>
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z133" t="s">
         <v>293</v>
@@ -14095,10 +14095,10 @@
         <v>2.29257489785758</v>
       </c>
       <c r="X134" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z134" t="s">
         <v>295</v>
@@ -14187,10 +14187,10 @@
         <v>-0.459002194277878</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z135" t="s">
         <v>297</v>
@@ -14279,10 +14279,10 @@
         <v>2.01259124526685</v>
       </c>
       <c r="X136" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z136" t="s">
         <v>299</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z137" t="s">
         <v>301</v>
@@ -14463,10 +14463,10 @@
         <v>-0.670904262375442</v>
       </c>
       <c r="X138" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z138" t="s">
         <v>303</v>
@@ -14555,10 +14555,10 @@
         <v>-1.24035925648474</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z139" t="s">
         <v>305</v>
@@ -14647,10 +14647,10 @@
         <v>2.30986808836502</v>
       </c>
       <c r="X140" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z140" t="s">
         <v>307</v>
@@ -14739,10 +14739,10 @@
         <v>-0.120300994524303</v>
       </c>
       <c r="X141" t="n">
-        <v>0.117924528301887</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z141" t="s">
         <v>309</v>
@@ -14831,7 +14831,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y142" t="n">
         <v>0</v>
@@ -14923,10 +14923,10 @@
         <v>-1.04995625573054</v>
       </c>
       <c r="X143" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z143" t="s">
         <v>313</v>
@@ -15015,10 +15015,10 @@
         <v>-0.583853515317504</v>
       </c>
       <c r="X144" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z144" t="s">
         <v>315</v>
@@ -15107,10 +15107,10 @@
         <v>1.01011365276527</v>
       </c>
       <c r="X145" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z145" t="s">
         <v>317</v>
@@ -15199,10 +15199,10 @@
         <v>1.24240608407703</v>
       </c>
       <c r="X146" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z146" t="s">
         <v>319</v>
@@ -15291,10 +15291,10 @@
         <v>-0.230836748405628</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Z147" t="s">
         <v>321</v>
@@ -15383,10 +15383,10 @@
         <v>1.71523256747086</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.486486486486487</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z148" t="s">
         <v>323</v>
@@ -15475,10 +15475,10 @@
         <v>-0.159466379708867</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z149" t="s">
         <v>325</v>
@@ -15567,10 +15567,10 @@
         <v>0.513731120208134</v>
       </c>
       <c r="X150" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z150" t="s">
         <v>327</v>
@@ -15662,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z151" t="s">
         <v>329</v>
@@ -15751,10 +15751,10 @@
         <v>2.86091802080525</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z152" t="s">
         <v>331</v>
@@ -15843,7 +15843,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y153" t="n">
         <v>0</v>
@@ -15935,10 +15935,10 @@
         <v>2.67519228225929</v>
       </c>
       <c r="X154" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z154" t="s">
         <v>335</v>
@@ -16027,10 +16027,10 @@
         <v>-0.261392808011624</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Z155" t="s">
         <v>337</v>
@@ -16119,10 +16119,10 @@
         <v>-0.289017151318241</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z156" t="s">
         <v>339</v>
@@ -16211,10 +16211,10 @@
         <v>-0.854893423755298</v>
       </c>
       <c r="X157" t="n">
-        <v>0.165094339622642</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z157" t="s">
         <v>341</v>
@@ -16303,10 +16303,10 @@
         <v>3.58343953882759</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z158" t="s">
         <v>343</v>
@@ -16395,10 +16395,10 @@
         <v>-1.97127925229264</v>
       </c>
       <c r="X159" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z159" t="s">
         <v>345</v>
@@ -16487,10 +16487,10 @@
         <v>-0.976960475997411</v>
       </c>
       <c r="X160" t="n">
-        <v>0.160377358490566</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Z160" t="s">
         <v>347</v>
@@ -16579,10 +16579,10 @@
         <v>0.642441754868533</v>
       </c>
       <c r="X161" t="n">
-        <v>0.0943396226415094</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z161" t="s">
         <v>349</v>
@@ -16671,10 +16671,10 @@
         <v>-3.07240169205739</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z162" t="s">
         <v>351</v>
@@ -16763,10 +16763,10 @@
         <v>-1.70382860120341</v>
       </c>
       <c r="X163" t="n">
-        <v>0.155660377358491</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z163" t="s">
         <v>353</v>
@@ -16855,10 +16855,10 @@
         <v>-1.28338692161925</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z164" t="s">
         <v>355</v>
@@ -16947,10 +16947,10 @@
         <v>-0.883260516780276</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z165" t="s">
         <v>357</v>
@@ -17039,10 +17039,10 @@
         <v>0.425812119266901</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z166" t="s">
         <v>359</v>
@@ -17131,10 +17131,10 @@
         <v>-1.48321680405682</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z167" t="s">
         <v>361</v>
@@ -17223,10 +17223,10 @@
         <v>-1.09275197290765</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.0471698113207547</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Z168" t="s">
         <v>363</v>
@@ -17315,10 +17315,10 @@
         <v>-1.07447659740361</v>
       </c>
       <c r="X169" t="n">
-        <v>0.10377358490566</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z169" t="s">
         <v>365</v>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z170" t="s">
         <v>367</v>
@@ -17502,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z171" t="s">
         <v>369</v>
@@ -17591,10 +17591,10 @@
         <v>1.50654429053321</v>
       </c>
       <c r="X172" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z172" t="s">
         <v>371</v>
@@ -17683,10 +17683,10 @@
         <v>0.736265891135748</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z173" t="s">
         <v>373</v>
@@ -17775,10 +17775,10 @@
         <v>0.465509919848497</v>
       </c>
       <c r="X174" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.243243243243243</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z174" t="s">
         <v>375</v>
@@ -17867,7 +17867,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X175" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y175" t="n">
         <v>0</v>
@@ -17959,10 +17959,10 @@
         <v>2.49092096733233</v>
       </c>
       <c r="X176" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z176" t="s">
         <v>379</v>
@@ -18051,10 +18051,10 @@
         <v>0.614015714853364</v>
       </c>
       <c r="X177" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z177" t="s">
         <v>381</v>
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Z178" t="s">
         <v>383</v>
@@ -18235,10 +18235,10 @@
         <v>0.508025832631369</v>
       </c>
       <c r="X179" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z179" t="s">
         <v>385</v>
@@ -18327,10 +18327,10 @@
         <v>-0.814813918222017</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.243243243243243</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z180" t="s">
         <v>387</v>
@@ -18419,7 +18419,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X181" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y181" t="n">
         <v>0</v>
@@ -18511,10 +18511,10 @@
         <v>0.289770132346868</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.432432432432432</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.0424528301886792</v>
+        <v>0.375</v>
       </c>
       <c r="Z182" t="s">
         <v>391</v>
@@ -18603,10 +18603,10 @@
         <v>1.4178362429007</v>
       </c>
       <c r="X183" t="n">
-        <v>0.169811320754717</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.080188679245283</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="Z183" t="s">
         <v>393</v>
@@ -18695,10 +18695,10 @@
         <v>0.777880596525009</v>
       </c>
       <c r="X184" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.75</v>
       </c>
       <c r="Z184" t="s">
         <v>395</v>
@@ -18787,10 +18787,10 @@
         <v>0.893866297776084</v>
       </c>
       <c r="X185" t="n">
-        <v>0.122641509433962</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z185" t="s">
         <v>397</v>
@@ -18879,10 +18879,10 @@
         <v>-0.906454818064796</v>
       </c>
       <c r="X186" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z186" t="s">
         <v>399</v>
@@ -18971,10 +18971,10 @@
         <v>1.85843340008852</v>
       </c>
       <c r="X187" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Z187" t="s">
         <v>401</v>
@@ -19063,10 +19063,10 @@
         <v>-2.39373056577686</v>
       </c>
       <c r="X188" t="n">
-        <v>0.0990566037735849</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z188" t="s">
         <v>403</v>
@@ -19155,10 +19155,10 @@
         <v>-0.346120321188836</v>
       </c>
       <c r="X189" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.432432432432432</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z189" t="s">
         <v>405</v>
@@ -19247,10 +19247,10 @@
         <v>-0.684566031148313</v>
       </c>
       <c r="X190" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z190" t="s">
         <v>407</v>
@@ -19342,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z191" t="s">
         <v>409</v>
@@ -19431,10 +19431,10 @@
         <v>-0.0891078652014228</v>
       </c>
       <c r="X192" t="n">
-        <v>0.0235849056603774</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z192" t="s">
         <v>411</v>
@@ -19523,10 +19523,10 @@
         <v>-3.72048834656676</v>
       </c>
       <c r="X193" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.00471698113207547</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Z193" t="s">
         <v>413</v>
@@ -19615,10 +19615,10 @@
         <v>0.0946460529541519</v>
       </c>
       <c r="X194" t="n">
-        <v>0.169811320754717</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.10377358490566</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Z194" t="s">
         <v>415</v>
@@ -19707,10 +19707,10 @@
         <v>0.283272879293672</v>
       </c>
       <c r="X195" t="n">
-        <v>0.160377358490566</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z195" t="s">
         <v>417</v>
@@ -19799,10 +19799,10 @@
         <v>-2.95770196762276</v>
       </c>
       <c r="X196" t="n">
-        <v>0.150943396226415</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.0566037735849057</v>
+        <v>0.5</v>
       </c>
       <c r="Z196" t="s">
         <v>419</v>
@@ -19891,7 +19891,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X197" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y197" t="n">
         <v>0</v>
@@ -19983,10 +19983,10 @@
         <v>-1.83574345230482</v>
       </c>
       <c r="X198" t="n">
-        <v>0.0660377358490566</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z198" t="s">
         <v>423</v>
@@ -20075,10 +20075,10 @@
         <v>-1.76373448220255</v>
       </c>
       <c r="X199" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.125</v>
       </c>
       <c r="Z199" t="s">
         <v>425</v>
@@ -20167,10 +20167,10 @@
         <v>-0.871157661558968</v>
       </c>
       <c r="X200" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.25</v>
       </c>
       <c r="Z200" t="s">
         <v>427</v>
@@ -20259,7 +20259,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X201" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y201" t="n">
         <v>0</v>
@@ -20351,10 +20351,10 @@
         <v>-0.639717271517789</v>
       </c>
       <c r="X202" t="n">
-        <v>0.122641509433962</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z202" t="s">
         <v>431</v>
@@ -20443,7 +20443,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X203" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y203" t="n">
         <v>0</v>
@@ -20535,10 +20535,10 @@
         <v>0.231098489552652</v>
       </c>
       <c r="X204" t="n">
-        <v>0.14622641509434</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.0707547169811321</v>
+        <v>0.625</v>
       </c>
       <c r="Z204" t="s">
         <v>435</v>
@@ -20627,10 +20627,10 @@
         <v>1.18866155777469</v>
       </c>
       <c r="X205" t="n">
-        <v>0.127358490566038</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.0518867924528302</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Z205" t="s">
         <v>437</v>
@@ -20719,10 +20719,10 @@
         <v>-1.74502931612615</v>
       </c>
       <c r="X206" t="n">
-        <v>0.122641509433962</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y206" t="n">
-        <v>0.0613207547169811</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Z206" t="s">
         <v>439</v>
@@ -20811,7 +20811,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X207" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y207" t="n">
         <v>0</v>
@@ -20903,7 +20903,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X208" t="n">
-        <v>0.0283018867924528</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y208" t="n">
         <v>0</v>
@@ -20995,10 +20995,10 @@
         <v>-3.44453896058676</v>
       </c>
       <c r="X209" t="n">
-        <v>0.0377358490566038</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y209" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z209" t="s">
         <v>445</v>
@@ -21087,10 +21087,10 @@
         <v>0.642479744709355</v>
       </c>
       <c r="X210" t="n">
-        <v>0.0141509433962264</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y210" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z210" t="s">
         <v>447</v>
@@ -21179,10 +21179,10 @@
         <v>2.81694887596991</v>
       </c>
       <c r="X211" t="n">
-        <v>0.136792452830189</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="Y211" t="n">
-        <v>0.0849056603773585</v>
+        <v>0.75</v>
       </c>
       <c r="Z211" t="s">
         <v>449</v>
@@ -21274,7 +21274,7 @@
         <v>0</v>
       </c>
       <c r="Y212" t="n">
-        <v>0.0188679245283019</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z212" t="s">
         <v>451</v>
@@ -21363,10 +21363,10 @@
         <v>-0.431660508948034</v>
       </c>
       <c r="X213" t="n">
-        <v>0.0330188679245283</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y213" t="n">
-        <v>0.00943396226415094</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Z213" t="s">
         <v>453</v>
@@ -21561,10 +21561,10 @@
         <v>-0.593548499301411</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.36734693877551</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -21653,10 +21653,10 @@
         <v>0.907087033261665</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.163265306122449</v>
+        <v>0.313725490196078</v>
       </c>
       <c r="Z3" t="s">
         <v>35</v>
@@ -21745,10 +21745,10 @@
         <v>-0.494647356499529</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.290816326530612</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z4" t="s">
         <v>37</v>
@@ -21837,10 +21837,10 @@
         <v>-0.971944278804396</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.25</v>
+        <v>0.480392156862745</v>
       </c>
       <c r="Z5" t="s">
         <v>39</v>
@@ -21929,10 +21929,10 @@
         <v>-0.79174721750938</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="Z6" t="s">
         <v>41</v>
@@ -22021,10 +22021,10 @@
         <v>-0.505778714428961</v>
       </c>
       <c r="X7" t="n">
-        <v>0.086734693877551</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.433673469387755</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z7" t="s">
         <v>43</v>
@@ -22113,10 +22113,10 @@
         <v>-2.5477305851642</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.076530612244898</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="Z8" t="s">
         <v>45</v>
@@ -22205,10 +22205,10 @@
         <v>-0.947198165348983</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z9" t="s">
         <v>51</v>
@@ -22297,10 +22297,10 @@
         <v>0.212921326849421</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.260204081632653</v>
+        <v>0.5</v>
       </c>
       <c r="Z10" t="s">
         <v>53</v>
@@ -22389,10 +22389,10 @@
         <v>1.37399518230596</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.112244897959184</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z11" t="s">
         <v>464</v>
@@ -22481,10 +22481,10 @@
         <v>0.706441562602917</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.290816326530612</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z12" t="s">
         <v>55</v>
@@ -22573,10 +22573,10 @@
         <v>0.107833977430214</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.36734693877551</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="Z13" t="s">
         <v>57</v>
@@ -22665,10 +22665,10 @@
         <v>0.729275935690214</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.479591836734694</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="Z14" t="s">
         <v>59</v>
@@ -22757,10 +22757,10 @@
         <v>2.51500132333552</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.076530612244898</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="Z15" t="s">
         <v>61</v>
@@ -22849,10 +22849,10 @@
         <v>1.65048305121411</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.158163265306122</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z16" t="s">
         <v>63</v>
@@ -22941,10 +22941,10 @@
         <v>4.75289808664376</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.122448979591837</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z17" t="s">
         <v>65</v>
@@ -23033,10 +23033,10 @@
         <v>0.778599140144972</v>
       </c>
       <c r="X18" t="n">
-        <v>0.107142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.403061224489796</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="Z18" t="s">
         <v>67</v>
@@ -23125,10 +23125,10 @@
         <v>-0.293171256741462</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.183673469387755</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="Z19" t="s">
         <v>69</v>
@@ -23217,10 +23217,10 @@
         <v>2.69486493670161</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.341836734693878</v>
+        <v>0.656862745098039</v>
       </c>
       <c r="Z20" t="s">
         <v>71</v>
@@ -23309,10 +23309,10 @@
         <v>3.64029251261817</v>
       </c>
       <c r="X21" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.127551020408163</v>
+        <v>0.245098039215686</v>
       </c>
       <c r="Z21" t="s">
         <v>466</v>
@@ -23401,10 +23401,10 @@
         <v>1.12780389383355</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.168367346938776</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="Z22" t="s">
         <v>73</v>
@@ -23493,10 +23493,10 @@
         <v>0.0612560024146529</v>
       </c>
       <c r="X23" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.403061224489796</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="Z23" t="s">
         <v>75</v>
@@ -23585,10 +23585,10 @@
         <v>1.02919221046248</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.112244897959184</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z24" t="s">
         <v>77</v>
@@ -23677,10 +23677,10 @@
         <v>-1.91500984644059</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z25" t="s">
         <v>79</v>
@@ -23769,10 +23769,10 @@
         <v>-5.65975636407271</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z26" t="s">
         <v>81</v>
@@ -23861,10 +23861,10 @@
         <v>-3.17922260109254</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z27" t="s">
         <v>83</v>
@@ -23953,10 +23953,10 @@
         <v>2.06469911539245</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0969387755102041</v>
+        <v>0.186274509803922</v>
       </c>
       <c r="Z28" t="s">
         <v>87</v>
@@ -24045,10 +24045,10 @@
         <v>-0.175544122798738</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0969387755102041</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.469387755102041</v>
+        <v>0.901960784313726</v>
       </c>
       <c r="Z29" t="s">
         <v>89</v>
@@ -24137,10 +24137,10 @@
         <v>-1.86746840139437</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z30" t="s">
         <v>91</v>
@@ -24229,10 +24229,10 @@
         <v>-0.537882742635551</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.163265306122449</v>
+        <v>0.313725490196078</v>
       </c>
       <c r="Z31" t="s">
         <v>95</v>
@@ -24321,10 +24321,10 @@
         <v>-0.228992750185192</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z32" t="s">
         <v>97</v>
@@ -24413,10 +24413,10 @@
         <v>0.107423117390682</v>
       </c>
       <c r="X33" t="n">
-        <v>0.107142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.505102040816326</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="Z33" t="s">
         <v>99</v>
@@ -24505,10 +24505,10 @@
         <v>0.824026432442515</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.285714285714286</v>
+        <v>0.549019607843137</v>
       </c>
       <c r="Z34" t="s">
         <v>101</v>
@@ -24597,10 +24597,10 @@
         <v>-0.114341863294132</v>
       </c>
       <c r="X35" t="n">
-        <v>0.102040816326531</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.479591836734694</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="Z35" t="s">
         <v>103</v>
@@ -24689,10 +24689,10 @@
         <v>1.76897454362198</v>
       </c>
       <c r="X36" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.295918367346939</v>
+        <v>0.568627450980392</v>
       </c>
       <c r="Z36" t="s">
         <v>105</v>
@@ -24781,10 +24781,10 @@
         <v>-0.552082029145888</v>
       </c>
       <c r="X37" t="n">
-        <v>0.112244897959184</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.5</v>
+        <v>0.96078431372549</v>
       </c>
       <c r="Z37" t="s">
         <v>107</v>
@@ -24873,10 +24873,10 @@
         <v>-0.0621359350978352</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.75</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.454081632653061</v>
+        <v>0.872549019607843</v>
       </c>
       <c r="Z38" t="s">
         <v>109</v>
@@ -24965,10 +24965,10 @@
         <v>0.049657868764194</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.193877551020408</v>
+        <v>0.372549019607843</v>
       </c>
       <c r="Z39" t="s">
         <v>111</v>
@@ -25057,10 +25057,10 @@
         <v>-1.0601426599639</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z40" t="s">
         <v>113</v>
@@ -25149,10 +25149,10 @@
         <v>-0.00242244237113666</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.158163265306122</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z41" t="s">
         <v>115</v>
@@ -25241,10 +25241,10 @@
         <v>-0.912164456711082</v>
       </c>
       <c r="X42" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.137755102040816</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="Z42" t="s">
         <v>468</v>
@@ -25333,10 +25333,10 @@
         <v>-0.906273640136012</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z43" t="s">
         <v>117</v>
@@ -25425,10 +25425,10 @@
         <v>-1.83561419387425</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="Z44" t="s">
         <v>119</v>
@@ -25517,10 +25517,10 @@
         <v>0.548423572861069</v>
       </c>
       <c r="X45" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z45" t="s">
         <v>121</v>
@@ -25609,10 +25609,10 @@
         <v>-0.781547520400434</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z46" t="s">
         <v>123</v>
@@ -25701,10 +25701,10 @@
         <v>-0.916765656978308</v>
       </c>
       <c r="X47" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z47" t="s">
         <v>125</v>
@@ -25793,10 +25793,10 @@
         <v>0.487123501622508</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.204081632653061</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="Z48" t="s">
         <v>127</v>
@@ -25885,10 +25885,10 @@
         <v>-0.256132789109552</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z49" t="s">
         <v>129</v>
@@ -25977,10 +25977,10 @@
         <v>-3.52248306799915</v>
       </c>
       <c r="X50" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="Z50" t="s">
         <v>131</v>
@@ -26069,10 +26069,10 @@
         <v>5.18448170308492</v>
       </c>
       <c r="X51" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.122448979591837</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z51" t="s">
         <v>133</v>
@@ -26161,10 +26161,10 @@
         <v>3.77595508990249</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z52" t="s">
         <v>135</v>
@@ -26253,10 +26253,10 @@
         <v>-5.963234646715</v>
       </c>
       <c r="X53" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z53" t="s">
         <v>137</v>
@@ -26345,10 +26345,10 @@
         <v>-1.76608361557293</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.357142857142857</v>
+        <v>0.686274509803922</v>
       </c>
       <c r="Z54" t="s">
         <v>139</v>
@@ -26437,10 +26437,10 @@
         <v>-1.28854342654716</v>
       </c>
       <c r="X55" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.316326530612245</v>
+        <v>0.607843137254902</v>
       </c>
       <c r="Z55" t="s">
         <v>141</v>
@@ -26529,10 +26529,10 @@
         <v>1.03478588113768</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.403061224489796</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="Z56" t="s">
         <v>143</v>
@@ -26621,10 +26621,10 @@
         <v>2.92358080718933</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z57" t="s">
         <v>145</v>
@@ -26713,10 +26713,10 @@
         <v>1.93134866233267</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.239795918367347</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z58" t="s">
         <v>147</v>
@@ -26805,10 +26805,10 @@
         <v>0.903573085653717</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.408163265306122</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="Z59" t="s">
         <v>149</v>
@@ -26897,10 +26897,10 @@
         <v>-0.933268466796549</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.122448979591837</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z60" t="s">
         <v>151</v>
@@ -26989,10 +26989,10 @@
         <v>-1.59071015898653</v>
       </c>
       <c r="X61" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z61" t="s">
         <v>153</v>
@@ -27081,10 +27081,10 @@
         <v>1.96563297424109</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z62" t="s">
         <v>157</v>
@@ -27173,10 +27173,10 @@
         <v>0.642883690116843</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.275510204081633</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="Z63" t="s">
         <v>159</v>
@@ -27265,10 +27265,10 @@
         <v>-0.950675353203158</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z64" t="s">
         <v>161</v>
@@ -27357,10 +27357,10 @@
         <v>0.752225976488338</v>
       </c>
       <c r="X65" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.479591836734694</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="Z65" t="s">
         <v>163</v>
@@ -27449,10 +27449,10 @@
         <v>-0.00992841561861313</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z66" t="s">
         <v>165</v>
@@ -27541,7 +27541,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y67" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>-1.64198667140993</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.23469387755102</v>
+        <v>0.450980392156863</v>
       </c>
       <c r="Z68" t="s">
         <v>169</v>
@@ -27725,10 +27725,10 @@
         <v>-2.85882262505954</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="Z69" t="s">
         <v>171</v>
@@ -27820,7 +27820,7 @@
         <v>0</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z70" t="s">
         <v>470</v>
@@ -27909,10 +27909,10 @@
         <v>-1.11279121294975</v>
       </c>
       <c r="X71" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.219387755102041</v>
+        <v>0.42156862745098</v>
       </c>
       <c r="Z71" t="s">
         <v>173</v>
@@ -28001,10 +28001,10 @@
         <v>0.620437753150421</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z72" t="s">
         <v>175</v>
@@ -28093,10 +28093,10 @@
         <v>-1.62169415754218</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.204081632653061</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="Z73" t="s">
         <v>177</v>
@@ -28185,10 +28185,10 @@
         <v>2.23044700946233</v>
       </c>
       <c r="X74" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.270408163265306</v>
+        <v>0.519607843137255</v>
       </c>
       <c r="Z74" t="s">
         <v>179</v>
@@ -28277,10 +28277,10 @@
         <v>-0.250354777086402</v>
       </c>
       <c r="X75" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.408163265306122</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="Z75" t="s">
         <v>181</v>
@@ -28369,10 +28369,10 @@
         <v>-3.53938042265443</v>
       </c>
       <c r="X76" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z76" t="s">
         <v>183</v>
@@ -28461,10 +28461,10 @@
         <v>-2.3805730617598</v>
       </c>
       <c r="X77" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="Z77" t="s">
         <v>185</v>
@@ -28553,10 +28553,10 @@
         <v>-0.806649407696134</v>
       </c>
       <c r="X78" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z78" t="s">
         <v>187</v>
@@ -28645,10 +28645,10 @@
         <v>-0.962819667129715</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.0784313725490196</v>
       </c>
       <c r="Z79" t="s">
         <v>189</v>
@@ -28737,10 +28737,10 @@
         <v>1.35141685995449</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z80" t="s">
         <v>191</v>
@@ -28829,10 +28829,10 @@
         <v>3.40561944321984</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z81" t="s">
         <v>193</v>
@@ -28921,10 +28921,10 @@
         <v>1.1104626329425</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z82" t="s">
         <v>195</v>
@@ -29013,10 +29013,10 @@
         <v>-1.23654025640053</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.0969387755102041</v>
+        <v>0.186274509803922</v>
       </c>
       <c r="Z83" t="s">
         <v>197</v>
@@ -29105,10 +29105,10 @@
         <v>1.05726843289702</v>
       </c>
       <c r="X84" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.158163265306122</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z84" t="s">
         <v>199</v>
@@ -29197,10 +29197,10 @@
         <v>-0.269542958603805</v>
       </c>
       <c r="X85" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.13265306122449</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="Z85" t="s">
         <v>201</v>
@@ -29289,10 +29289,10 @@
         <v>-0.54222437653114</v>
       </c>
       <c r="X86" t="n">
-        <v>0.0969387755102041</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.510204081632653</v>
+        <v>0.980392156862745</v>
       </c>
       <c r="Z86" t="s">
         <v>203</v>
@@ -29381,10 +29381,10 @@
         <v>2.70304977495686</v>
       </c>
       <c r="X87" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="Z87" t="s">
         <v>472</v>
@@ -29473,10 +29473,10 @@
         <v>0.322237737228522</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.122448979591837</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z88" t="s">
         <v>205</v>
@@ -29565,10 +29565,10 @@
         <v>0.294308008586453</v>
       </c>
       <c r="X89" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.311224489795918</v>
+        <v>0.598039215686274</v>
       </c>
       <c r="Z89" t="s">
         <v>207</v>
@@ -29657,10 +29657,10 @@
         <v>-4.61526394836248</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="Z90" t="s">
         <v>211</v>
@@ -29749,10 +29749,10 @@
         <v>1.74772709693633</v>
       </c>
       <c r="X91" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.112244897959184</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z91" t="s">
         <v>217</v>
@@ -29841,10 +29841,10 @@
         <v>-0.0121559483268423</v>
       </c>
       <c r="X92" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.193877551020408</v>
+        <v>0.372549019607843</v>
       </c>
       <c r="Z92" t="s">
         <v>219</v>
@@ -29933,7 +29933,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y93" t="n">
         <v>0</v>
@@ -30025,10 +30025,10 @@
         <v>7.88692412860504</v>
       </c>
       <c r="X94" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.076530612244898</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="Z94" t="s">
         <v>474</v>
@@ -30117,10 +30117,10 @@
         <v>1.88290570178499</v>
       </c>
       <c r="X95" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z95" t="s">
         <v>476</v>
@@ -30209,10 +30209,10 @@
         <v>0.0252555688633591</v>
       </c>
       <c r="X96" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.75</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.448979591836735</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="Z96" t="s">
         <v>223</v>
@@ -30301,10 +30301,10 @@
         <v>3.77552468064311</v>
       </c>
       <c r="X97" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.137755102040816</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="Z97" t="s">
         <v>225</v>
@@ -30393,10 +30393,10 @@
         <v>-0.574753959359096</v>
       </c>
       <c r="X98" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.178571428571429</v>
+        <v>0.343137254901961</v>
       </c>
       <c r="Z98" t="s">
         <v>227</v>
@@ -30485,10 +30485,10 @@
         <v>-1.46640691047907</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z99" t="s">
         <v>229</v>
@@ -30577,10 +30577,10 @@
         <v>-1.45375493213443</v>
       </c>
       <c r="X100" t="n">
-        <v>0.086734693877551</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.423469387755102</v>
+        <v>0.813725490196078</v>
       </c>
       <c r="Z100" t="s">
         <v>231</v>
@@ -30669,10 +30669,10 @@
         <v>-0.00519549464780055</v>
       </c>
       <c r="X101" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="Z101" t="s">
         <v>233</v>
@@ -30761,10 +30761,10 @@
         <v>-0.155367161526299</v>
       </c>
       <c r="X102" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.392857142857143</v>
+        <v>0.754901960784314</v>
       </c>
       <c r="Z102" t="s">
         <v>237</v>
@@ -30853,10 +30853,10 @@
         <v>4.3263433036707</v>
       </c>
       <c r="X103" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.275510204081633</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="Z103" t="s">
         <v>239</v>
@@ -30945,10 +30945,10 @@
         <v>0.859874399498479</v>
       </c>
       <c r="X104" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.122448979591837</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z104" t="s">
         <v>241</v>
@@ -31037,10 +31037,10 @@
         <v>-0.378801406599787</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.188775510204082</v>
+        <v>0.362745098039216</v>
       </c>
       <c r="Z105" t="s">
         <v>243</v>
@@ -31129,10 +31129,10 @@
         <v>-4.80983486740505</v>
       </c>
       <c r="X106" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="Z106" t="s">
         <v>245</v>
@@ -31221,10 +31221,10 @@
         <v>1.85681429823394</v>
       </c>
       <c r="X107" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.306122448979592</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="Z107" t="s">
         <v>247</v>
@@ -31313,10 +31313,10 @@
         <v>-1.21258553081838</v>
       </c>
       <c r="X108" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.112244897959184</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z108" t="s">
         <v>249</v>
@@ -31405,10 +31405,10 @@
         <v>3.46702203705178</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.464285714285714</v>
+        <v>0.892156862745098</v>
       </c>
       <c r="Z109" t="s">
         <v>253</v>
@@ -31497,10 +31497,10 @@
         <v>8.39075006281347</v>
       </c>
       <c r="X110" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.127551020408163</v>
+        <v>0.245098039215686</v>
       </c>
       <c r="Z110" t="s">
         <v>255</v>
@@ -31589,10 +31589,10 @@
         <v>1.17543401557611</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z111" t="s">
         <v>257</v>
@@ -31681,10 +31681,10 @@
         <v>-2.02005742673772</v>
       </c>
       <c r="X112" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z112" t="s">
         <v>259</v>
@@ -31773,10 +31773,10 @@
         <v>-4.67830027675163</v>
       </c>
       <c r="X113" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.158163265306122</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z113" t="s">
         <v>261</v>
@@ -31865,10 +31865,10 @@
         <v>0.276961196788438</v>
       </c>
       <c r="X114" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.469387755102041</v>
+        <v>0.901960784313726</v>
       </c>
       <c r="Z114" t="s">
         <v>263</v>
@@ -31957,10 +31957,10 @@
         <v>-0.521239813039179</v>
       </c>
       <c r="X115" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.372448979591837</v>
+        <v>0.715686274509804</v>
       </c>
       <c r="Z115" t="s">
         <v>265</v>
@@ -32049,10 +32049,10 @@
         <v>-1.53295627278511</v>
       </c>
       <c r="X116" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.260204081632653</v>
+        <v>0.5</v>
       </c>
       <c r="Z116" t="s">
         <v>267</v>
@@ -32141,10 +32141,10 @@
         <v>1.47618184668956</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.147959183673469</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="Z117" t="s">
         <v>271</v>
@@ -32233,10 +32233,10 @@
         <v>3.19799774270999</v>
       </c>
       <c r="X118" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z118" t="s">
         <v>273</v>
@@ -32325,10 +32325,10 @@
         <v>-1.06407272642107</v>
       </c>
       <c r="X119" t="n">
-        <v>0.107142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.494897959183673</v>
+        <v>0.950980392156863</v>
       </c>
       <c r="Z119" t="s">
         <v>275</v>
@@ -32417,10 +32417,10 @@
         <v>0.740630950141777</v>
       </c>
       <c r="X120" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.316326530612245</v>
+        <v>0.607843137254902</v>
       </c>
       <c r="Z120" t="s">
         <v>277</v>
@@ -32509,10 +32509,10 @@
         <v>-0.592875037966533</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.239795918367347</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z121" t="s">
         <v>279</v>
@@ -32601,10 +32601,10 @@
         <v>-1.48953587677617</v>
       </c>
       <c r="X122" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.290816326530612</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z122" t="s">
         <v>281</v>
@@ -32693,10 +32693,10 @@
         <v>-1.32596019036755</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.214285714285714</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="Z123" t="s">
         <v>283</v>
@@ -32785,10 +32785,10 @@
         <v>0.43035977646157</v>
       </c>
       <c r="X124" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z124" t="s">
         <v>285</v>
@@ -32877,10 +32877,10 @@
         <v>-0.938179162785759</v>
       </c>
       <c r="X125" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z125" t="s">
         <v>287</v>
@@ -32969,10 +32969,10 @@
         <v>-0.742693731836199</v>
       </c>
       <c r="X126" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.321428571428571</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="Z126" t="s">
         <v>289</v>
@@ -33061,10 +33061,10 @@
         <v>-0.665941879849185</v>
       </c>
       <c r="X127" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.311224489795918</v>
+        <v>0.598039215686274</v>
       </c>
       <c r="Z127" t="s">
         <v>291</v>
@@ -33153,10 +33153,10 @@
         <v>-0.486902407966147</v>
       </c>
       <c r="X128" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z128" t="s">
         <v>293</v>
@@ -33245,10 +33245,10 @@
         <v>2.84053951961036</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.122448979591837</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z129" t="s">
         <v>295</v>
@@ -33337,10 +33337,10 @@
         <v>1.04968063776794</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.112244897959184</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z130" t="s">
         <v>297</v>
@@ -33429,7 +33429,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X131" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y131" t="n">
         <v>0</v>
@@ -33521,10 +33521,10 @@
         <v>0.600449014357901</v>
       </c>
       <c r="X132" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="Z132" t="s">
         <v>301</v>
@@ -33613,10 +33613,10 @@
         <v>3.863165184404</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z133" t="s">
         <v>303</v>
@@ -33705,10 +33705,10 @@
         <v>1.44710329217283</v>
       </c>
       <c r="X134" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z134" t="s">
         <v>305</v>
@@ -33797,10 +33797,10 @@
         <v>1.58481997099633</v>
       </c>
       <c r="X135" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.147959183673469</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="Z135" t="s">
         <v>307</v>
@@ -33889,10 +33889,10 @@
         <v>2.73219291711029</v>
       </c>
       <c r="X136" t="n">
-        <v>0.00510204081632653</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z136" t="s">
         <v>478</v>
@@ -33981,10 +33981,10 @@
         <v>-1.06563590908234</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.260204081632653</v>
+        <v>0.5</v>
       </c>
       <c r="Z137" t="s">
         <v>309</v>
@@ -34076,7 +34076,7 @@
         <v>0</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z138" t="s">
         <v>311</v>
@@ -34165,10 +34165,10 @@
         <v>3.31113224479181</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.173469387755102</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z139" t="s">
         <v>313</v>
@@ -34257,10 +34257,10 @@
         <v>1.48241452874378</v>
       </c>
       <c r="X140" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.158163265306122</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z140" t="s">
         <v>315</v>
@@ -34349,10 +34349,10 @@
         <v>-5.6551793165378</v>
       </c>
       <c r="X141" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="Z141" t="s">
         <v>317</v>
@@ -34441,10 +34441,10 @@
         <v>0.0138825297599103</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.142857142857143</v>
+        <v>0.274509803921569</v>
       </c>
       <c r="Z142" t="s">
         <v>321</v>
@@ -34533,10 +34533,10 @@
         <v>-0.439896441177718</v>
       </c>
       <c r="X143" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.244897959183673</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="Z143" t="s">
         <v>323</v>
@@ -34625,10 +34625,10 @@
         <v>-0.574243558216226</v>
       </c>
       <c r="X144" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z144" t="s">
         <v>325</v>
@@ -34717,10 +34717,10 @@
         <v>-1.4246095257518</v>
       </c>
       <c r="X145" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.188775510204082</v>
+        <v>0.362745098039216</v>
       </c>
       <c r="Z145" t="s">
         <v>327</v>
@@ -34809,10 +34809,10 @@
         <v>1.67631154070266</v>
       </c>
       <c r="X146" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z146" t="s">
         <v>329</v>
@@ -34901,10 +34901,10 @@
         <v>-0.772985243096006</v>
       </c>
       <c r="X147" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.173469387755102</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z147" t="s">
         <v>331</v>
@@ -34993,10 +34993,10 @@
         <v>3.77769561039665</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z148" t="s">
         <v>335</v>
@@ -35085,10 +35085,10 @@
         <v>1.03951698948588</v>
       </c>
       <c r="X149" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.321428571428571</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="Z149" t="s">
         <v>337</v>
@@ -35177,10 +35177,10 @@
         <v>0.0816316735182114</v>
       </c>
       <c r="X150" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.168367346938776</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="Z150" t="s">
         <v>339</v>
@@ -35269,10 +35269,10 @@
         <v>-0.203971637234333</v>
       </c>
       <c r="X151" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.198979591836735</v>
+        <v>0.382352941176471</v>
       </c>
       <c r="Z151" t="s">
         <v>341</v>
@@ -35361,10 +35361,10 @@
         <v>-0.71294750436812</v>
       </c>
       <c r="X152" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.0816326530612245</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z152" t="s">
         <v>343</v>
@@ -35453,10 +35453,10 @@
         <v>3.72246635811296</v>
       </c>
       <c r="X153" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="Z153" t="s">
         <v>345</v>
@@ -35545,10 +35545,10 @@
         <v>-0.401116680885512</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.326530612244898</v>
+        <v>0.627450980392157</v>
       </c>
       <c r="Z154" t="s">
         <v>347</v>
@@ -35637,10 +35637,10 @@
         <v>-0.126344629055347</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.214285714285714</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="Z155" t="s">
         <v>349</v>
@@ -35729,10 +35729,10 @@
         <v>1.26623570673043</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.377551020408163</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="Z156" t="s">
         <v>353</v>
@@ -35821,10 +35821,10 @@
         <v>-0.345400539131411</v>
       </c>
       <c r="X157" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z157" t="s">
         <v>355</v>
@@ -35913,10 +35913,10 @@
         <v>-0.28944810134519</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.255102040816327</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="Z158" t="s">
         <v>357</v>
@@ -36005,10 +36005,10 @@
         <v>0.0338935229040838</v>
       </c>
       <c r="X159" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.11734693877551</v>
+        <v>0.225490196078431</v>
       </c>
       <c r="Z159" t="s">
         <v>359</v>
@@ -36097,10 +36097,10 @@
         <v>1.3638875430743</v>
       </c>
       <c r="X160" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z160" t="s">
         <v>361</v>
@@ -36189,10 +36189,10 @@
         <v>2.51945633993899</v>
       </c>
       <c r="X161" t="n">
-        <v>0.0510204081632653</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.178571428571429</v>
+        <v>0.343137254901961</v>
       </c>
       <c r="Z161" t="s">
         <v>363</v>
@@ -36281,10 +36281,10 @@
         <v>1.20658235679635</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.239795918367347</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z162" t="s">
         <v>365</v>
@@ -36373,10 +36373,10 @@
         <v>-3.2289735176732</v>
       </c>
       <c r="X163" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z163" t="s">
         <v>367</v>
@@ -36465,10 +36465,10 @@
         <v>-0.154012712738863</v>
       </c>
       <c r="X164" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.0784313725490196</v>
       </c>
       <c r="Z164" t="s">
         <v>369</v>
@@ -36557,10 +36557,10 @@
         <v>-2.63936343590955</v>
       </c>
       <c r="X165" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z165" t="s">
         <v>371</v>
@@ -36649,10 +36649,10 @@
         <v>-1.01529291428342</v>
       </c>
       <c r="X166" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z166" t="s">
         <v>373</v>
@@ -36741,10 +36741,10 @@
         <v>1.00151984109893</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.137755102040816</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="Z167" t="s">
         <v>375</v>
@@ -36833,10 +36833,10 @@
         <v>-4.04013037360351</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="Z168" t="s">
         <v>379</v>
@@ -36925,10 +36925,10 @@
         <v>0.282415129280177</v>
       </c>
       <c r="X169" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.158163265306122</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z169" t="s">
         <v>383</v>
@@ -37017,10 +37017,10 @@
         <v>0.158834966779019</v>
       </c>
       <c r="X170" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z170" t="s">
         <v>387</v>
@@ -37109,10 +37109,10 @@
         <v>1.95501847840608</v>
       </c>
       <c r="X171" t="n">
-        <v>0.0459183673469388</v>
+        <v>0.375</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.290816326530612</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z171" t="s">
         <v>391</v>
@@ -37201,10 +37201,10 @@
         <v>-0.236640680903856</v>
       </c>
       <c r="X172" t="n">
-        <v>0.086734693877551</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.459183673469388</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="Z172" t="s">
         <v>393</v>
@@ -37293,10 +37293,10 @@
         <v>1.01105948184384</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.75</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.331632653061224</v>
+        <v>0.637254901960784</v>
       </c>
       <c r="Z173" t="s">
         <v>395</v>
@@ -37385,10 +37385,10 @@
         <v>0.141340113290285</v>
       </c>
       <c r="X174" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.285714285714286</v>
+        <v>0.549019607843137</v>
       </c>
       <c r="Z174" t="s">
         <v>397</v>
@@ -37477,10 +37477,10 @@
         <v>-1.2398042819233</v>
       </c>
       <c r="X175" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.255102040816327</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="Z175" t="s">
         <v>401</v>
@@ -37569,10 +37569,10 @@
         <v>1.80078722077043</v>
       </c>
       <c r="X176" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.198979591836735</v>
+        <v>0.382352941176471</v>
       </c>
       <c r="Z176" t="s">
         <v>403</v>
@@ -37661,10 +37661,10 @@
         <v>0.647303977291005</v>
       </c>
       <c r="X177" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.229591836734694</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="Z177" t="s">
         <v>405</v>
@@ -37753,10 +37753,10 @@
         <v>1.45570704960108</v>
       </c>
       <c r="X178" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.239795918367347</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z178" t="s">
         <v>409</v>
@@ -37848,7 +37848,7 @@
         <v>0</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="Z179" t="s">
         <v>480</v>
@@ -37937,10 +37937,10 @@
         <v>-1.32077265198732</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0408163265306122</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.127551020408163</v>
+        <v>0.245098039215686</v>
       </c>
       <c r="Z180" t="s">
         <v>411</v>
@@ -38029,10 +38029,10 @@
         <v>1.30757605701143</v>
       </c>
       <c r="X181" t="n">
-        <v>0.112244897959184</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.520408163265306</v>
+        <v>1</v>
       </c>
       <c r="Z181" t="s">
         <v>415</v>
@@ -38121,10 +38121,10 @@
         <v>0.604771591081353</v>
       </c>
       <c r="X182" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.418367346938776</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="Z182" t="s">
         <v>417</v>
@@ -38213,10 +38213,10 @@
         <v>2.31740075040779</v>
       </c>
       <c r="X183" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.5</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.36734693877551</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="Z183" t="s">
         <v>419</v>
@@ -38308,7 +38308,7 @@
         <v>0</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z184" t="s">
         <v>421</v>
@@ -38397,10 +38397,10 @@
         <v>2.27886690387545</v>
       </c>
       <c r="X185" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.107142857142857</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z185" t="s">
         <v>423</v>
@@ -38489,10 +38489,10 @@
         <v>4.26389508488405</v>
       </c>
       <c r="X186" t="n">
-        <v>0.0153061224489796</v>
+        <v>0.125</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.147959183673469</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="Z186" t="s">
         <v>425</v>
@@ -38581,10 +38581,10 @@
         <v>1.11674873184702</v>
       </c>
       <c r="X187" t="n">
-        <v>0.0306122448979592</v>
+        <v>0.25</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.13265306122449</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="Z187" t="s">
         <v>427</v>
@@ -38673,10 +38673,10 @@
         <v>1.10824673845475</v>
       </c>
       <c r="X188" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.255102040816327</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="Z188" t="s">
         <v>431</v>
@@ -38768,7 +38768,7 @@
         <v>0</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z189" t="s">
         <v>433</v>
@@ -38857,10 +38857,10 @@
         <v>-0.306310149259448</v>
       </c>
       <c r="X190" t="n">
-        <v>0.076530612244898</v>
+        <v>0.625</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.321428571428571</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="Z190" t="s">
         <v>435</v>
@@ -38949,10 +38949,10 @@
         <v>-1.11204675659468</v>
       </c>
       <c r="X191" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.26530612244898</v>
+        <v>0.509803921568627</v>
       </c>
       <c r="Z191" t="s">
         <v>437</v>
@@ -39041,10 +39041,10 @@
         <v>0.247662554563703</v>
       </c>
       <c r="X192" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.204081632653061</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="Z192" t="s">
         <v>439</v>
@@ -39133,10 +39133,10 @@
         <v>2.45802338898715</v>
       </c>
       <c r="X193" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.0561224489795918</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z193" t="s">
         <v>445</v>
@@ -39225,10 +39225,10 @@
         <v>-3.18937032518184</v>
       </c>
       <c r="X194" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z194" t="s">
         <v>447</v>
@@ -39317,10 +39317,10 @@
         <v>0.0251338966362822</v>
       </c>
       <c r="X195" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.75</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.459183673469388</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="Z195" t="s">
         <v>449</v>
@@ -39409,10 +39409,10 @@
         <v>1.88134077189549</v>
       </c>
       <c r="X196" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.0663265306122449</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z196" t="s">
         <v>451</v>
@@ -39501,10 +39501,10 @@
         <v>-0.675099395836719</v>
       </c>
       <c r="X197" t="n">
-        <v>0.0102040816326531</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.0255102040816327</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z197" t="s">
         <v>453</v>
@@ -39699,10 +39699,10 @@
         <v>2.9142159002018</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.371134020618557</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="Z2" t="s">
         <v>31</v>
@@ -39791,10 +39791,10 @@
         <v>-2.46759534477183</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z3" t="s">
         <v>33</v>
@@ -39883,10 +39883,10 @@
         <v>0.0744146809638709</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.164948453608247</v>
+        <v>0.313725490196078</v>
       </c>
       <c r="Z4" t="s">
         <v>35</v>
@@ -39975,10 +39975,10 @@
         <v>0.933284329490393</v>
       </c>
       <c r="X5" t="n">
-        <v>0.128865979381443</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.293814432989691</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z5" t="s">
         <v>37</v>
@@ -40067,10 +40067,10 @@
         <v>0.540402606452989</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0876288659793814</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.252577319587629</v>
+        <v>0.480392156862745</v>
       </c>
       <c r="Z6" t="s">
         <v>39</v>
@@ -40159,10 +40159,10 @@
         <v>2.70774502889168</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="Z7" t="s">
         <v>41</v>
@@ -40251,10 +40251,10 @@
         <v>-0.0974221986477745</v>
       </c>
       <c r="X8" t="n">
-        <v>0.185567010309278</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.438144329896907</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="Z8" t="s">
         <v>43</v>
@@ -40343,10 +40343,10 @@
         <v>2.34754113851805</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z9" t="s">
         <v>47</v>
@@ -40435,7 +40435,7 @@
         <v>#NUM!</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -40527,10 +40527,10 @@
         <v>-0.291452605785592</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z11" t="s">
         <v>51</v>
@@ -40619,10 +40619,10 @@
         <v>0.785057928469746</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0876288659793814</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.262886597938144</v>
+        <v>0.5</v>
       </c>
       <c r="Z12" t="s">
         <v>53</v>
@@ -40711,10 +40711,10 @@
         <v>4.71895494067338</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0103092783505155</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.11340206185567</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z13" t="s">
         <v>464</v>
@@ -40803,10 +40803,10 @@
         <v>0.175415097252779</v>
       </c>
       <c r="X14" t="n">
-        <v>0.11340206185567</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.293814432989691</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -40895,10 +40895,10 @@
         <v>0.268658502442178</v>
       </c>
       <c r="X15" t="n">
-        <v>0.103092783505155</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.371134020618557</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="Z15" t="s">
         <v>57</v>
@@ -40987,10 +40987,10 @@
         <v>-0.179009205301236</v>
       </c>
       <c r="X16" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.484536082474227</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="Z16" t="s">
         <v>59</v>
@@ -41079,10 +41079,10 @@
         <v>4.11449594103203</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.077319587628866</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="Z17" t="s">
         <v>61</v>
@@ -41171,10 +41171,10 @@
         <v>1.2186871285196</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.15979381443299</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z18" t="s">
         <v>63</v>
@@ -41263,10 +41263,10 @@
         <v>-0.862666325154921</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.123711340206186</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
@@ -41355,10 +41355,10 @@
         <v>0.0139194031466391</v>
       </c>
       <c r="X20" t="n">
-        <v>0.144329896907216</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.407216494845361</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="Z20" t="s">
         <v>67</v>
@@ -41447,10 +41447,10 @@
         <v>0.0835547504951852</v>
       </c>
       <c r="X21" t="n">
-        <v>0.103092783505155</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.185567010309278</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="Z21" t="s">
         <v>69</v>
@@ -41539,10 +41539,10 @@
         <v>0.579365821464971</v>
       </c>
       <c r="X22" t="n">
-        <v>0.154639175257732</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.345360824742268</v>
+        <v>0.656862745098039</v>
       </c>
       <c r="Z22" t="s">
         <v>71</v>
@@ -41631,10 +41631,10 @@
         <v>6.82665138269595</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.128865979381443</v>
+        <v>0.245098039215686</v>
       </c>
       <c r="Z23" t="s">
         <v>466</v>
@@ -41723,10 +41723,10 @@
         <v>0.906571611178774</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.432432432432432</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.170103092783505</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="Z24" t="s">
         <v>73</v>
@@ -41815,10 +41815,10 @@
         <v>-0.29539260602013</v>
       </c>
       <c r="X25" t="n">
-        <v>0.185567010309278</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.407216494845361</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="Z25" t="s">
         <v>75</v>
@@ -41907,10 +41907,10 @@
         <v>2.03558752671484</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.11340206185567</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z26" t="s">
         <v>77</v>
@@ -41999,10 +41999,10 @@
         <v>-2.17102739167425</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z27" t="s">
         <v>79</v>
@@ -42091,10 +42091,10 @@
         <v>-0.165908594507386</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z28" t="s">
         <v>85</v>
@@ -42183,10 +42183,10 @@
         <v>1.22888426600214</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0979381443298969</v>
+        <v>0.186274509803922</v>
       </c>
       <c r="Z29" t="s">
         <v>87</v>
@@ -42275,10 +42275,10 @@
         <v>-0.60738302209316</v>
       </c>
       <c r="X30" t="n">
-        <v>0.180412371134021</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.474226804123711</v>
+        <v>0.901960784313726</v>
       </c>
       <c r="Z30" t="s">
         <v>89</v>
@@ -42367,10 +42367,10 @@
         <v>0.51470637571766</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z31" t="s">
         <v>91</v>
@@ -42459,10 +42459,10 @@
         <v>-4.39074717331765</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="Z32" t="s">
         <v>93</v>
@@ -42551,10 +42551,10 @@
         <v>0.706522363173176</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.164948453608247</v>
+        <v>0.313725490196078</v>
       </c>
       <c r="Z33" t="s">
         <v>95</v>
@@ -42643,10 +42643,10 @@
         <v>-0.308010025710553</v>
       </c>
       <c r="X34" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.510309278350515</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="Z34" t="s">
         <v>99</v>
@@ -42735,10 +42735,10 @@
         <v>-0.339444812847875</v>
       </c>
       <c r="X35" t="n">
-        <v>0.15979381443299</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.288659793814433</v>
+        <v>0.549019607843137</v>
       </c>
       <c r="Z35" t="s">
         <v>101</v>
@@ -42827,10 +42827,10 @@
         <v>1.01685413772324</v>
       </c>
       <c r="X36" t="n">
-        <v>0.175257731958763</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.484536082474227</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="Z36" t="s">
         <v>103</v>
@@ -42919,10 +42919,10 @@
         <v>0.0944500100394852</v>
       </c>
       <c r="X37" t="n">
-        <v>0.170103092783505</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.298969072164948</v>
+        <v>0.568627450980392</v>
       </c>
       <c r="Z37" t="s">
         <v>105</v>
@@ -43011,10 +43011,10 @@
         <v>0.224317011336657</v>
       </c>
       <c r="X38" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.505154639175258</v>
+        <v>0.96078431372549</v>
       </c>
       <c r="Z38" t="s">
         <v>107</v>
@@ -43103,10 +43103,10 @@
         <v>-0.333199014216442</v>
       </c>
       <c r="X39" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.458762886597938</v>
+        <v>0.872549019607843</v>
       </c>
       <c r="Z39" t="s">
         <v>109</v>
@@ -43195,10 +43195,10 @@
         <v>-0.613890392922577</v>
       </c>
       <c r="X40" t="n">
-        <v>0.144329896907216</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.195876288659794</v>
+        <v>0.372549019607843</v>
       </c>
       <c r="Z40" t="s">
         <v>111</v>
@@ -43287,10 +43287,10 @@
         <v>-0.4712274932839</v>
       </c>
       <c r="X41" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z41" t="s">
         <v>113</v>
@@ -43379,10 +43379,10 @@
         <v>-1.29967338883436</v>
       </c>
       <c r="X42" t="n">
-        <v>0.134020618556701</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.15979381443299</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z42" t="s">
         <v>115</v>
@@ -43474,7 +43474,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.139175257731959</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="Z43" t="s">
         <v>468</v>
@@ -43563,10 +43563,10 @@
         <v>-0.847936240793217</v>
       </c>
       <c r="X44" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z44" t="s">
         <v>117</v>
@@ -43655,10 +43655,10 @@
         <v>-0.73450941374391</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z45" t="s">
         <v>121</v>
@@ -43747,10 +43747,10 @@
         <v>-1.14132058776222</v>
       </c>
       <c r="X46" t="n">
-        <v>0.144329896907216</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.206185567010309</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="Z46" t="s">
         <v>127</v>
@@ -43839,10 +43839,10 @@
         <v>-0.874896040373402</v>
       </c>
       <c r="X47" t="n">
-        <v>0.11340206185567</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.123711340206186</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z47" t="s">
         <v>133</v>
@@ -43931,10 +43931,10 @@
         <v>0.0673814041530639</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z48" t="s">
         <v>135</v>
@@ -44023,10 +44023,10 @@
         <v>4.11281914958131</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.360824742268041</v>
+        <v>0.686274509803922</v>
       </c>
       <c r="Z49" t="s">
         <v>139</v>
@@ -44115,10 +44115,10 @@
         <v>-1.60505573560925</v>
       </c>
       <c r="X50" t="n">
-        <v>0.15979381443299</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.319587628865979</v>
+        <v>0.607843137254902</v>
       </c>
       <c r="Z50" t="s">
         <v>141</v>
@@ -44207,10 +44207,10 @@
         <v>0.0420628134107951</v>
       </c>
       <c r="X51" t="n">
-        <v>0.180412371134021</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.407216494845361</v>
+        <v>0.774509803921569</v>
       </c>
       <c r="Z51" t="s">
         <v>143</v>
@@ -44299,10 +44299,10 @@
         <v>-0.088689925769002</v>
       </c>
       <c r="X52" t="n">
-        <v>0.139175257731959</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.242268041237113</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z52" t="s">
         <v>147</v>
@@ -44391,10 +44391,10 @@
         <v>-0.905987173514935</v>
       </c>
       <c r="X53" t="n">
-        <v>0.180412371134021</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.412371134020619</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="Z53" t="s">
         <v>149</v>
@@ -44483,10 +44483,10 @@
         <v>-1.206659694797</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.123711340206186</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z54" t="s">
         <v>151</v>
@@ -44575,10 +44575,10 @@
         <v>-3.0857058248012</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="Z55" t="s">
         <v>155</v>
@@ -44667,10 +44667,10 @@
         <v>0.768906438270794</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z56" t="s">
         <v>157</v>
@@ -44759,10 +44759,10 @@
         <v>2.52915723668342</v>
       </c>
       <c r="X57" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.278350515463918</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="Z57" t="s">
         <v>159</v>
@@ -44851,10 +44851,10 @@
         <v>-5.7738686467204</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z58" t="s">
         <v>161</v>
@@ -44943,10 +44943,10 @@
         <v>0.646478454604797</v>
       </c>
       <c r="X59" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.484536082474227</v>
+        <v>0.92156862745098</v>
       </c>
       <c r="Z59" t="s">
         <v>163</v>
@@ -45035,10 +45035,10 @@
         <v>2.1294779239522</v>
       </c>
       <c r="X60" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z60" t="s">
         <v>165</v>
@@ -45127,10 +45127,10 @@
         <v>0.13974250173107</v>
       </c>
       <c r="X61" t="n">
-        <v>0.123711340206186</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.237113402061856</v>
+        <v>0.450980392156863</v>
       </c>
       <c r="Z61" t="s">
         <v>169</v>
@@ -45219,10 +45219,10 @@
         <v>0.172401208531606</v>
       </c>
       <c r="X62" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="Z62" t="s">
         <v>171</v>
@@ -45314,7 +45314,7 @@
         <v>0</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z63" t="s">
         <v>470</v>
@@ -45403,10 +45403,10 @@
         <v>6.00680981941602</v>
       </c>
       <c r="X64" t="n">
-        <v>0.0103092783505155</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.221649484536082</v>
+        <v>0.42156862745098</v>
       </c>
       <c r="Z64" t="s">
         <v>173</v>
@@ -45495,10 +45495,10 @@
         <v>-2.40641596830786</v>
       </c>
       <c r="X65" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z65" t="s">
         <v>175</v>
@@ -45587,10 +45587,10 @@
         <v>1.08990645824241</v>
       </c>
       <c r="X66" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.206185567010309</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="Z66" t="s">
         <v>177</v>
@@ -45679,10 +45679,10 @@
         <v>-0.255393145454659</v>
       </c>
       <c r="X67" t="n">
-        <v>0.164948453608247</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.27319587628866</v>
+        <v>0.519607843137255</v>
       </c>
       <c r="Z67" t="s">
         <v>179</v>
@@ -45771,10 +45771,10 @@
         <v>0.840031979433251</v>
       </c>
       <c r="X68" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.412371134020619</v>
+        <v>0.784313725490196</v>
       </c>
       <c r="Z68" t="s">
         <v>181</v>
@@ -45863,10 +45863,10 @@
         <v>-1.19797524577267</v>
       </c>
       <c r="X69" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z69" t="s">
         <v>187</v>
@@ -45955,10 +45955,10 @@
         <v>-1.58263194527506</v>
       </c>
       <c r="X70" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.0784313725490196</v>
       </c>
       <c r="Z70" t="s">
         <v>189</v>
@@ -46047,10 +46047,10 @@
         <v>0.311637281816251</v>
       </c>
       <c r="X71" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z71" t="s">
         <v>191</v>
@@ -46139,10 +46139,10 @@
         <v>0.82262612189161</v>
       </c>
       <c r="X72" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z72" t="s">
         <v>193</v>
@@ -46231,10 +46231,10 @@
         <v>-0.754362163566655</v>
       </c>
       <c r="X73" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.0979381443298969</v>
+        <v>0.186274509803922</v>
       </c>
       <c r="Z73" t="s">
         <v>197</v>
@@ -46323,10 +46323,10 @@
         <v>9.19456034811287</v>
       </c>
       <c r="X74" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.15979381443299</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z74" t="s">
         <v>199</v>
@@ -46415,10 +46415,10 @@
         <v>1.41302315922814</v>
       </c>
       <c r="X75" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.134020618556701</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="Z75" t="s">
         <v>201</v>
@@ -46507,10 +46507,10 @@
         <v>-0.828715934668454</v>
       </c>
       <c r="X76" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.515463917525773</v>
+        <v>0.980392156862745</v>
       </c>
       <c r="Z76" t="s">
         <v>203</v>
@@ -46602,7 +46602,7 @@
         <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0927835051546392</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="Z77" t="s">
         <v>472</v>
@@ -46691,10 +46691,10 @@
         <v>-0.130622984269744</v>
       </c>
       <c r="X78" t="n">
-        <v>0.0979381443298969</v>
+        <v>0.513513513513513</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.123711340206186</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z78" t="s">
         <v>205</v>
@@ -46783,10 +46783,10 @@
         <v>-0.803188043707699</v>
       </c>
       <c r="X79" t="n">
-        <v>0.144329896907216</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.314432989690722</v>
+        <v>0.598039215686274</v>
       </c>
       <c r="Z79" t="s">
         <v>207</v>
@@ -46875,10 +46875,10 @@
         <v>-2.26944142871292</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z80" t="s">
         <v>209</v>
@@ -46967,10 +46967,10 @@
         <v>-1.72341375228771</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="Z81" t="s">
         <v>213</v>
@@ -47059,10 +47059,10 @@
         <v>-4.83269962004989</v>
       </c>
       <c r="X82" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="Z82" t="s">
         <v>215</v>
@@ -47151,10 +47151,10 @@
         <v>0.785167310493811</v>
       </c>
       <c r="X83" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.11340206185567</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z83" t="s">
         <v>217</v>
@@ -47243,10 +47243,10 @@
         <v>-0.99603783763038</v>
       </c>
       <c r="X84" t="n">
-        <v>0.15979381443299</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.195876288659794</v>
+        <v>0.372549019607843</v>
       </c>
       <c r="Z84" t="s">
         <v>219</v>
@@ -47338,7 +47338,7 @@
         <v>0</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.077319587628866</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="Z85" t="s">
         <v>474</v>
@@ -47427,10 +47427,10 @@
         <v>0.870766665903401</v>
       </c>
       <c r="X86" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z86" t="s">
         <v>476</v>
@@ -47519,10 +47519,10 @@
         <v>-0.807487665192351</v>
       </c>
       <c r="X87" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.45360824742268</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="Z87" t="s">
         <v>223</v>
@@ -47611,10 +47611,10 @@
         <v>6.14691931826899</v>
       </c>
       <c r="X88" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.139175257731959</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="Z88" t="s">
         <v>225</v>
@@ -47703,10 +47703,10 @@
         <v>-0.812874389380514</v>
       </c>
       <c r="X89" t="n">
-        <v>0.128865979381443</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.180412371134021</v>
+        <v>0.343137254901961</v>
       </c>
       <c r="Z89" t="s">
         <v>227</v>
@@ -47795,10 +47795,10 @@
         <v>-1.27852021418387</v>
       </c>
       <c r="X90" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z90" t="s">
         <v>229</v>
@@ -47887,10 +47887,10 @@
         <v>-0.301394501339203</v>
       </c>
       <c r="X91" t="n">
-        <v>0.180412371134021</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.427835051546392</v>
+        <v>0.813725490196078</v>
       </c>
       <c r="Z91" t="s">
         <v>231</v>
@@ -47979,10 +47979,10 @@
         <v>3.37696903881648</v>
       </c>
       <c r="X92" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.0927835051546392</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="Z92" t="s">
         <v>233</v>
@@ -48071,10 +48071,10 @@
         <v>-4.33785263814367</v>
       </c>
       <c r="X93" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z93" t="s">
         <v>235</v>
@@ -48163,10 +48163,10 @@
         <v>-0.62114627263124</v>
       </c>
       <c r="X94" t="n">
-        <v>0.185567010309278</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.396907216494845</v>
+        <v>0.754901960784314</v>
       </c>
       <c r="Z94" t="s">
         <v>237</v>
@@ -48255,10 +48255,10 @@
         <v>1.05438234327666</v>
       </c>
       <c r="X95" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.278350515463918</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="Z95" t="s">
         <v>239</v>
@@ -48347,10 +48347,10 @@
         <v>-0.748698019081411</v>
       </c>
       <c r="X96" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.123711340206186</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z96" t="s">
         <v>241</v>
@@ -48439,10 +48439,10 @@
         <v>0.012595079312919</v>
       </c>
       <c r="X97" t="n">
-        <v>0.139175257731959</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.190721649484536</v>
+        <v>0.362745098039216</v>
       </c>
       <c r="Z97" t="s">
         <v>243</v>
@@ -48531,10 +48531,10 @@
         <v>1.15679853620256</v>
       </c>
       <c r="X98" t="n">
-        <v>0.108247422680412</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.309278350515464</v>
+        <v>0.588235294117647</v>
       </c>
       <c r="Z98" t="s">
         <v>247</v>
@@ -48623,10 +48623,10 @@
         <v>-1.82185684625816</v>
       </c>
       <c r="X99" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.11340206185567</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z99" t="s">
         <v>249</v>
@@ -48715,10 +48715,10 @@
         <v>-1.52617061724756</v>
       </c>
       <c r="X100" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.0876288659793814</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Z100" t="s">
         <v>251</v>
@@ -48807,10 +48807,10 @@
         <v>2.02117937682365</v>
       </c>
       <c r="X101" t="n">
-        <v>0.123711340206186</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.469072164948454</v>
+        <v>0.892156862745098</v>
       </c>
       <c r="Z101" t="s">
         <v>253</v>
@@ -48899,10 +48899,10 @@
         <v>1.10952240102479</v>
       </c>
       <c r="X102" t="n">
-        <v>0.077319587628866</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.128865979381443</v>
+        <v>0.245098039215686</v>
       </c>
       <c r="Z102" t="s">
         <v>255</v>
@@ -48991,10 +48991,10 @@
         <v>-1.99984470976951</v>
       </c>
       <c r="X103" t="n">
-        <v>0.0927835051546392</v>
+        <v>0.486486486486487</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z103" t="s">
         <v>257</v>
@@ -49083,10 +49083,10 @@
         <v>-1.03220783025327</v>
       </c>
       <c r="X104" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z104" t="s">
         <v>259</v>
@@ -49175,10 +49175,10 @@
         <v>3.02187301380926</v>
       </c>
       <c r="X105" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.15979381443299</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z105" t="s">
         <v>261</v>
@@ -49267,10 +49267,10 @@
         <v>-0.0544827686097391</v>
       </c>
       <c r="X106" t="n">
-        <v>0.175257731958763</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.474226804123711</v>
+        <v>0.901960784313726</v>
       </c>
       <c r="Z106" t="s">
         <v>263</v>
@@ -49359,10 +49359,10 @@
         <v>1.59424298366136</v>
       </c>
       <c r="X107" t="n">
-        <v>0.123711340206186</v>
+        <v>0.648648648648649</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.376288659793814</v>
+        <v>0.715686274509804</v>
       </c>
       <c r="Z107" t="s">
         <v>265</v>
@@ -49451,10 +49451,10 @@
         <v>-1.18145631546719</v>
       </c>
       <c r="X108" t="n">
-        <v>0.15979381443299</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.262886597938144</v>
+        <v>0.5</v>
       </c>
       <c r="Z108" t="s">
         <v>267</v>
@@ -49543,10 +49543,10 @@
         <v>-0.208085423160054</v>
       </c>
       <c r="X109" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z109" t="s">
         <v>269</v>
@@ -49635,10 +49635,10 @@
         <v>-1.14298089727068</v>
       </c>
       <c r="X110" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.149484536082474</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="Z110" t="s">
         <v>271</v>
@@ -49727,10 +49727,10 @@
         <v>0.666501206887018</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z111" t="s">
         <v>273</v>
@@ -49819,10 +49819,10 @@
         <v>-1.2231352547075</v>
       </c>
       <c r="X112" t="n">
-        <v>0.190721649484536</v>
+        <v>1</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.5</v>
+        <v>0.950980392156863</v>
       </c>
       <c r="Z112" t="s">
         <v>275</v>
@@ -49911,10 +49911,10 @@
         <v>0.105314845949272</v>
       </c>
       <c r="X113" t="n">
-        <v>0.11340206185567</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.319587628865979</v>
+        <v>0.607843137254902</v>
       </c>
       <c r="Z113" t="s">
         <v>277</v>
@@ -50003,10 +50003,10 @@
         <v>-0.791019875697336</v>
       </c>
       <c r="X114" t="n">
-        <v>0.144329896907216</v>
+        <v>0.756756756756757</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.242268041237113</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z114" t="s">
         <v>279</v>
@@ -50095,10 +50095,10 @@
         <v>-0.954511430766385</v>
       </c>
       <c r="X115" t="n">
-        <v>0.149484536082474</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.293814432989691</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z115" t="s">
         <v>281</v>
@@ -50187,10 +50187,10 @@
         <v>-0.581531238386015</v>
       </c>
       <c r="X116" t="n">
-        <v>0.154639175257732</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.216494845360825</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="Z116" t="s">
         <v>283</v>
@@ -50279,10 +50279,10 @@
         <v>1.44938802218609</v>
       </c>
       <c r="X117" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z117" t="s">
         <v>285</v>
@@ -50371,10 +50371,10 @@
         <v>0.102791504071492</v>
       </c>
       <c r="X118" t="n">
-        <v>0.185567010309278</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.324742268041237</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="Z118" t="s">
         <v>289</v>
@@ -50463,10 +50463,10 @@
         <v>-1.14811285421758</v>
       </c>
       <c r="X119" t="n">
-        <v>0.154639175257732</v>
+        <v>0.810810810810811</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.314432989690722</v>
+        <v>0.598039215686274</v>
       </c>
       <c r="Z119" t="s">
         <v>291</v>
@@ -50558,7 +50558,7 @@
         <v>0</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z120" t="s">
         <v>293</v>
@@ -50647,10 +50647,10 @@
         <v>5.14280406433127</v>
       </c>
       <c r="X121" t="n">
-        <v>0.0103092783505155</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.123711340206186</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="Z121" t="s">
         <v>295</v>
@@ -50739,10 +50739,10 @@
         <v>0.602651507730632</v>
       </c>
       <c r="X122" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.11340206185567</v>
+        <v>0.215686274509804</v>
       </c>
       <c r="Z122" t="s">
         <v>297</v>
@@ -50831,10 +50831,10 @@
         <v>0.246274626566958</v>
       </c>
       <c r="X123" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z123" t="s">
         <v>305</v>
@@ -50923,10 +50923,10 @@
         <v>3.90114093542331</v>
       </c>
       <c r="X124" t="n">
-        <v>0.0103092783505155</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.149484536082474</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="Z124" t="s">
         <v>307</v>
@@ -51018,7 +51018,7 @@
         <v>0</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z125" t="s">
         <v>478</v>
@@ -51107,10 +51107,10 @@
         <v>-1.18491630071261</v>
       </c>
       <c r="X126" t="n">
-        <v>0.128865979381443</v>
+        <v>0.675675675675676</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.262886597938144</v>
+        <v>0.5</v>
       </c>
       <c r="Z126" t="s">
         <v>309</v>
@@ -51199,10 +51199,10 @@
         <v>0.913116747046964</v>
       </c>
       <c r="X127" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z127" t="s">
         <v>311</v>
@@ -51291,10 +51291,10 @@
         <v>2.24416626071284</v>
       </c>
       <c r="X128" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.175257731958763</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z128" t="s">
         <v>313</v>
@@ -51383,10 +51383,10 @@
         <v>0.895624452534544</v>
       </c>
       <c r="X129" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.27027027027027</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.15979381443299</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z129" t="s">
         <v>315</v>
@@ -51475,10 +51475,10 @@
         <v>-0.403822717590615</v>
       </c>
       <c r="X130" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="Z130" t="s">
         <v>319</v>
@@ -51567,10 +51567,10 @@
         <v>-0.2240744096725</v>
       </c>
       <c r="X131" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.144329896907216</v>
+        <v>0.274509803921569</v>
       </c>
       <c r="Z131" t="s">
         <v>321</v>
@@ -51659,10 +51659,10 @@
         <v>1.27758239586344</v>
       </c>
       <c r="X132" t="n">
-        <v>0.0927835051546392</v>
+        <v>0.486486486486487</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.247422680412371</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="Z132" t="s">
         <v>323</v>
@@ -51751,10 +51751,10 @@
         <v>-0.722759240405131</v>
       </c>
       <c r="X133" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z133" t="s">
         <v>325</v>
@@ -51843,10 +51843,10 @@
         <v>-0.905989036100164</v>
       </c>
       <c r="X134" t="n">
-        <v>0.103092783505155</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.190721649484536</v>
+        <v>0.362745098039216</v>
       </c>
       <c r="Z134" t="s">
         <v>327</v>
@@ -51938,7 +51938,7 @@
         <v>0</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z135" t="s">
         <v>329</v>
@@ -52027,10 +52027,10 @@
         <v>2.10002723983652</v>
       </c>
       <c r="X136" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.175257731958763</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z136" t="s">
         <v>331</v>
@@ -52119,10 +52119,10 @@
         <v>-0.147411944980499</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="Z137" t="s">
         <v>333</v>
@@ -52211,10 +52211,10 @@
         <v>6.45314597454233</v>
       </c>
       <c r="X138" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z138" t="s">
         <v>335</v>
@@ -52303,10 +52303,10 @@
         <v>0.783180594919491</v>
       </c>
       <c r="X139" t="n">
-        <v>0.108247422680412</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.324742268041237</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="Z139" t="s">
         <v>337</v>
@@ -52395,10 +52395,10 @@
         <v>-0.209715366012556</v>
       </c>
       <c r="X140" t="n">
-        <v>0.108247422680412</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.170103092783505</v>
+        <v>0.323529411764706</v>
       </c>
       <c r="Z140" t="s">
         <v>339</v>
@@ -52487,10 +52487,10 @@
         <v>-1.06267023911368</v>
       </c>
       <c r="X141" t="n">
-        <v>0.180412371134021</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.201030927835052</v>
+        <v>0.382352941176471</v>
       </c>
       <c r="Z141" t="s">
         <v>341</v>
@@ -52579,10 +52579,10 @@
         <v>2.8866550893139</v>
       </c>
       <c r="X142" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="Z142" t="s">
         <v>343</v>
@@ -52671,10 +52671,10 @@
         <v>1.79296549823549</v>
       </c>
       <c r="X143" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.0927835051546392</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="Z143" t="s">
         <v>345</v>
@@ -52763,10 +52763,10 @@
         <v>-1.37318326889459</v>
       </c>
       <c r="X144" t="n">
-        <v>0.175257731958763</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.329896907216495</v>
+        <v>0.627450980392157</v>
       </c>
       <c r="Z144" t="s">
         <v>347</v>
@@ -52855,10 +52855,10 @@
         <v>0.509767748020151</v>
       </c>
       <c r="X145" t="n">
-        <v>0.103092783505155</v>
+        <v>0.540540540540541</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.216494845360825</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="Z145" t="s">
         <v>349</v>
@@ -52947,10 +52947,10 @@
         <v>1.73499123531405</v>
       </c>
       <c r="X146" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z146" t="s">
         <v>351</v>
@@ -53039,10 +53039,10 @@
         <v>-0.440836652214168</v>
       </c>
       <c r="X147" t="n">
-        <v>0.170103092783505</v>
+        <v>0.891891891891892</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.381443298969072</v>
+        <v>0.725490196078431</v>
       </c>
       <c r="Z147" t="s">
         <v>353</v>
@@ -53131,10 +53131,10 @@
         <v>-1.63106606778286</v>
       </c>
       <c r="X148" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.324324324324324</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z148" t="s">
         <v>355</v>
@@ -53223,10 +53223,10 @@
         <v>-1.17213131093434</v>
       </c>
       <c r="X149" t="n">
-        <v>0.108247422680412</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.257731958762887</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="Z149" t="s">
         <v>357</v>
@@ -53315,10 +53315,10 @@
         <v>0.471986161193427</v>
       </c>
       <c r="X150" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.351351351351351</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.118556701030928</v>
+        <v>0.225490196078431</v>
       </c>
       <c r="Z150" t="s">
         <v>359</v>
@@ -53407,10 +53407,10 @@
         <v>-0.109745102480442</v>
       </c>
       <c r="X151" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z151" t="s">
         <v>361</v>
@@ -53499,10 +53499,10 @@
         <v>1.43635359870024</v>
       </c>
       <c r="X152" t="n">
-        <v>0.077319587628866</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.180412371134021</v>
+        <v>0.343137254901961</v>
       </c>
       <c r="Z152" t="s">
         <v>363</v>
@@ -53591,10 +53591,10 @@
         <v>0.133009555718388</v>
       </c>
       <c r="X153" t="n">
-        <v>0.11340206185567</v>
+        <v>0.594594594594595</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.242268041237113</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z153" t="s">
         <v>365</v>
@@ -53683,10 +53683,10 @@
         <v>-1.15546093125435</v>
       </c>
       <c r="X154" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.0686274509803922</v>
       </c>
       <c r="Z154" t="s">
         <v>371</v>
@@ -53775,10 +53775,10 @@
         <v>-0.28296386238226</v>
       </c>
       <c r="X155" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z155" t="s">
         <v>373</v>
@@ -53867,10 +53867,10 @@
         <v>1.46233955293604</v>
       </c>
       <c r="X156" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.243243243243243</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.139175257731959</v>
+        <v>0.264705882352941</v>
       </c>
       <c r="Z156" t="s">
         <v>375</v>
@@ -53959,10 +53959,10 @@
         <v>-2.58348133950369</v>
       </c>
       <c r="X157" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z157" t="s">
         <v>377</v>
@@ -54051,10 +54051,10 @@
         <v>-1.23315823229121</v>
       </c>
       <c r="X158" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z158" t="s">
         <v>381</v>
@@ -54146,7 +54146,7 @@
         <v>0</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.15979381443299</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="Z159" t="s">
         <v>383</v>
@@ -54235,10 +54235,10 @@
         <v>0.0616030761021186</v>
       </c>
       <c r="X160" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="Z160" t="s">
         <v>385</v>
@@ -54327,10 +54327,10 @@
         <v>-0.659583381430714</v>
       </c>
       <c r="X161" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.243243243243243</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z161" t="s">
         <v>387</v>
@@ -54419,10 +54419,10 @@
         <v>0.392135983711642</v>
       </c>
       <c r="X162" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="Z162" t="s">
         <v>389</v>
@@ -54511,10 +54511,10 @@
         <v>2.24476816821032</v>
       </c>
       <c r="X163" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.432432432432432</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.293814432989691</v>
+        <v>0.558823529411765</v>
       </c>
       <c r="Z163" t="s">
         <v>391</v>
@@ -54603,10 +54603,10 @@
         <v>1.18806288908515</v>
       </c>
       <c r="X164" t="n">
-        <v>0.185567010309278</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.463917525773196</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="Z164" t="s">
         <v>393</v>
@@ -54695,10 +54695,10 @@
         <v>1.7901569073751</v>
       </c>
       <c r="X165" t="n">
-        <v>0.108247422680412</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.335051546391753</v>
+        <v>0.637254901960784</v>
       </c>
       <c r="Z165" t="s">
         <v>395</v>
@@ -54787,10 +54787,10 @@
         <v>1.03103236281112</v>
       </c>
       <c r="X166" t="n">
-        <v>0.134020618556701</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.288659793814433</v>
+        <v>0.549019607843137</v>
       </c>
       <c r="Z166" t="s">
         <v>397</v>
@@ -54879,10 +54879,10 @@
         <v>1.64052891739981</v>
       </c>
       <c r="X167" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.0618556701030928</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="Z167" t="s">
         <v>399</v>
@@ -54971,10 +54971,10 @@
         <v>0.622897400905968</v>
       </c>
       <c r="X168" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.257731958762887</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="Z168" t="s">
         <v>401</v>
@@ -55063,10 +55063,10 @@
         <v>-0.59157009073859</v>
       </c>
       <c r="X169" t="n">
-        <v>0.108247422680412</v>
+        <v>0.567567567567568</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.201030927835052</v>
+        <v>0.382352941176471</v>
       </c>
       <c r="Z169" t="s">
         <v>403</v>
@@ -55155,10 +55155,10 @@
         <v>0.3028500774429</v>
       </c>
       <c r="X170" t="n">
-        <v>0.0824742268041237</v>
+        <v>0.432432432432432</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.231958762886598</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="Z170" t="s">
         <v>405</v>
@@ -55247,10 +55247,10 @@
         <v>-1.96043867266698</v>
       </c>
       <c r="X171" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z171" t="s">
         <v>407</v>
@@ -55342,7 +55342,7 @@
         <v>0</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.242268041237113</v>
+        <v>0.46078431372549</v>
       </c>
       <c r="Z172" t="s">
         <v>409</v>
@@ -55434,7 +55434,7 @@
         <v>0</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="Z173" t="s">
         <v>480</v>
@@ -55523,10 +55523,10 @@
         <v>-1.4051457991616</v>
       </c>
       <c r="X174" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.135135135135135</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.128865979381443</v>
+        <v>0.245098039215686</v>
       </c>
       <c r="Z174" t="s">
         <v>411</v>
@@ -55615,10 +55615,10 @@
         <v>-0.051488892827646</v>
       </c>
       <c r="X175" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z175" t="s">
         <v>413</v>
@@ -55707,10 +55707,10 @@
         <v>1.39705580803673</v>
       </c>
       <c r="X176" t="n">
-        <v>0.185567010309278</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.525773195876289</v>
+        <v>1</v>
       </c>
       <c r="Z176" t="s">
         <v>415</v>
@@ -55799,10 +55799,10 @@
         <v>0.891961562154593</v>
       </c>
       <c r="X177" t="n">
-        <v>0.175257731958763</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.422680412371134</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="Z177" t="s">
         <v>417</v>
@@ -55891,10 +55891,10 @@
         <v>-0.638822630034837</v>
       </c>
       <c r="X178" t="n">
-        <v>0.164948453608247</v>
+        <v>0.864864864864865</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.371134020618557</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="Z178" t="s">
         <v>419</v>
@@ -55983,10 +55983,10 @@
         <v>-2.47355565916333</v>
       </c>
       <c r="X179" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z179" t="s">
         <v>421</v>
@@ -56075,10 +56075,10 @@
         <v>0.46236624347998</v>
       </c>
       <c r="X180" t="n">
-        <v>0.0721649484536082</v>
+        <v>0.378378378378378</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.108247422680412</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="Z180" t="s">
         <v>423</v>
@@ -56167,10 +56167,10 @@
         <v>2.50151999487762</v>
       </c>
       <c r="X181" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.108108108108108</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.149484536082474</v>
+        <v>0.284313725490196</v>
       </c>
       <c r="Z181" t="s">
         <v>425</v>
@@ -56259,10 +56259,10 @@
         <v>0.26968403960418</v>
       </c>
       <c r="X182" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.134020618556701</v>
+        <v>0.254901960784314</v>
       </c>
       <c r="Z182" t="s">
         <v>427</v>
@@ -56351,10 +56351,10 @@
         <v>-1.45977522161346</v>
       </c>
       <c r="X183" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.0463917525773196</v>
+        <v>0.0882352941176471</v>
       </c>
       <c r="Z183" t="s">
         <v>429</v>
@@ -56443,10 +56443,10 @@
         <v>0.472515355534773</v>
       </c>
       <c r="X184" t="n">
-        <v>0.134020618556701</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.257731958762887</v>
+        <v>0.490196078431373</v>
       </c>
       <c r="Z184" t="s">
         <v>431</v>
@@ -56535,10 +56535,10 @@
         <v>1.45215431430359</v>
       </c>
       <c r="X185" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z185" t="s">
         <v>433</v>
@@ -56627,10 +56627,10 @@
         <v>-0.0764214454901102</v>
       </c>
       <c r="X186" t="n">
-        <v>0.15979381443299</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.324742268041237</v>
+        <v>0.617647058823529</v>
       </c>
       <c r="Z186" t="s">
         <v>435</v>
@@ -56719,10 +56719,10 @@
         <v>0.081175088843116</v>
       </c>
       <c r="X187" t="n">
-        <v>0.139175257731959</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.268041237113402</v>
+        <v>0.509803921568627</v>
       </c>
       <c r="Z187" t="s">
         <v>437</v>
@@ -56811,10 +56811,10 @@
         <v>-1.50180873729363</v>
       </c>
       <c r="X188" t="n">
-        <v>0.134020618556701</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.206185567010309</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="Z188" t="s">
         <v>439</v>
@@ -56903,10 +56903,10 @@
         <v>-2.05664422674079</v>
       </c>
       <c r="X189" t="n">
-        <v>0.0103092783505155</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.00515463917525773</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="Z189" t="s">
         <v>441</v>
@@ -56995,10 +56995,10 @@
         <v>-0.474531063740307</v>
       </c>
       <c r="X190" t="n">
-        <v>0.0309278350515464</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.0515463917525773</v>
+        <v>0.0980392156862745</v>
       </c>
       <c r="Z190" t="s">
         <v>443</v>
@@ -57087,10 +57087,10 @@
         <v>-1.00444268674408</v>
       </c>
       <c r="X191" t="n">
-        <v>0.0412371134020619</v>
+        <v>0.216216216216216</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.0567010309278351</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="Z191" t="s">
         <v>445</v>
@@ -57179,10 +57179,10 @@
         <v>-2.55236401072205</v>
       </c>
       <c r="X192" t="n">
-        <v>0.0154639175257732</v>
+        <v>0.0810810810810811</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.0206185567010309</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="Z192" t="s">
         <v>447</v>
@@ -57271,10 +57271,10 @@
         <v>2.8361801304571</v>
       </c>
       <c r="X193" t="n">
-        <v>0.149484536082474</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.463917525773196</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="Z193" t="s">
         <v>449</v>
@@ -57366,7 +57366,7 @@
         <v>0</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.0670103092783505</v>
+        <v>0.127450980392157</v>
       </c>
       <c r="Z194" t="s">
         <v>451</v>
@@ -57455,10 +57455,10 @@
         <v>-1.12874633601423</v>
       </c>
       <c r="X195" t="n">
-        <v>0.0360824742268041</v>
+        <v>0.189189189189189</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.0257731958762887</v>
+        <v>0.0490196078431373</v>
       </c>
       <c r="Z195" t="s">
         <v>453</v>
